--- a/teaching/traditional_assets/database/data/japan/japan_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/japan/japan_brokerage_investment_banking.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0219</v>
+        <v>-0.00167</v>
       </c>
       <c r="E2">
-        <v>-0.1024</v>
+        <v>-0.1045</v>
       </c>
       <c r="F2">
-        <v>0.0527</v>
+        <v>0.166</v>
       </c>
       <c r="G2">
-        <v>0.04439979457530563</v>
+        <v>0.03344238804250577</v>
       </c>
       <c r="H2">
-        <v>0.04134754363951143</v>
+        <v>0.03339882376449367</v>
       </c>
       <c r="I2">
-        <v>0.03553142061828316</v>
+        <v>0.04061141951130069</v>
       </c>
       <c r="J2">
-        <v>0.02758465151752788</v>
+        <v>0.03099314017255119</v>
       </c>
       <c r="K2">
-        <v>2223.06</v>
+        <v>3723.466</v>
       </c>
       <c r="L2">
-        <v>0.0840705856192125</v>
+        <v>0.1340579404897561</v>
       </c>
       <c r="M2">
-        <v>2167.51796</v>
+        <v>2599.08769</v>
       </c>
       <c r="N2">
-        <v>0.0554037850632122</v>
+        <v>0.06737262596622928</v>
       </c>
       <c r="O2">
-        <v>0.9750155011560643</v>
+        <v>0.6980291185685595</v>
       </c>
       <c r="P2">
-        <v>804.58796</v>
+        <v>1338.97669</v>
       </c>
       <c r="Q2">
-        <v>0.02056602031583091</v>
+        <v>0.03470847715525509</v>
       </c>
       <c r="R2">
-        <v>0.3619281350930699</v>
+        <v>0.3596049191801402</v>
       </c>
       <c r="S2">
-        <v>1362.93</v>
+        <v>1260.111</v>
       </c>
       <c r="T2">
-        <v>0.6287975579219652</v>
+        <v>0.4848281975434234</v>
       </c>
       <c r="U2">
-        <v>81657.58</v>
+        <v>91509.34</v>
       </c>
       <c r="V2">
-        <v>2.087244071141193</v>
+        <v>2.372072539128722</v>
       </c>
       <c r="W2">
-        <v>0.03747614436156031</v>
+        <v>0.05725245063219207</v>
       </c>
       <c r="X2">
-        <v>0.04973110211818056</v>
+        <v>0.03611794457971709</v>
       </c>
       <c r="Y2">
-        <v>-0.01225495775662026</v>
+        <v>0.02113450605247499</v>
       </c>
       <c r="Z2">
-        <v>0.07750608104841553</v>
+        <v>0.07423904984681746</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04495259725060464</v>
+        <v>0.0322744783331238</v>
       </c>
       <c r="AC2">
-        <v>-0.04466617655361596</v>
+        <v>-0.03214477315753347</v>
       </c>
       <c r="AD2">
-        <v>400707.598</v>
+        <v>421674.86</v>
       </c>
       <c r="AE2">
-        <v>1607.047307516372</v>
+        <v>2411.293962513239</v>
       </c>
       <c r="AF2">
-        <v>402314.6453075164</v>
+        <v>424086.1539625132</v>
       </c>
       <c r="AG2">
-        <v>320657.0653075164</v>
+        <v>332576.8139625132</v>
       </c>
       <c r="AH2">
-        <v>0.9113753180871287</v>
+        <v>0.9166180990120408</v>
       </c>
       <c r="AI2">
-        <v>0.8837525094856835</v>
+        <v>0.8853921505139296</v>
       </c>
       <c r="AJ2">
-        <v>0.8912605484183174</v>
+        <v>0.8960600284928794</v>
       </c>
       <c r="AK2">
-        <v>0.8583427802992225</v>
+        <v>0.8583251787049705</v>
       </c>
       <c r="AL2">
-        <v>62.361</v>
+        <v>254.343</v>
       </c>
       <c r="AM2">
-        <v>-31.642</v>
+        <v>166.103</v>
       </c>
       <c r="AN2">
-        <v>285.7423190826184</v>
+        <v>229.1072434696196</v>
       </c>
       <c r="AO2">
-        <v>15.12579977870785</v>
+        <v>4.232945274688118</v>
       </c>
       <c r="AP2">
-        <v>228.6587375146212</v>
+        <v>180.6978891007633</v>
       </c>
       <c r="AQ2">
-        <v>-29.81037861070729</v>
+        <v>6.481640909556118</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>meinan M&amp;A co.,ltd. (NSE:7076)</t>
+          <t>Strike Company,Limited (TSE:6196)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,23 +727,26 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="F3">
+        <v>0.29</v>
+      </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.4481132075471698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4481132075471698</v>
       </c>
       <c r="I3">
-        <v>0.2959459459459459</v>
+        <v>0.4025157232704403</v>
       </c>
       <c r="J3">
-        <v>0.1965631678189817</v>
+        <v>0.2804882292987297</v>
       </c>
       <c r="K3">
-        <v>1.42</v>
+        <v>17.6</v>
       </c>
       <c r="L3">
-        <v>0.1918918918918919</v>
+        <v>0.2767295597484277</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,16 +770,31 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>3.61</v>
+        <v>60.9</v>
       </c>
       <c r="V3">
-        <v>0.07680851063829787</v>
+        <v>0.06426084203861981</v>
+      </c>
+      <c r="W3">
+        <v>0.3527054108216433</v>
       </c>
       <c r="X3">
-        <v>0.04493565290976192</v>
+        <v>0.03182867371628791</v>
+      </c>
+      <c r="Y3">
+        <v>0.3208767371053554</v>
+      </c>
+      <c r="Z3">
+        <v>127.2</v>
+      </c>
+      <c r="AA3">
+        <v>35.67810276679842</v>
       </c>
       <c r="AB3">
-        <v>0.04493565290976192</v>
+        <v>0.03182867371628791</v>
+      </c>
+      <c r="AC3">
+        <v>35.64627409308213</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -788,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-3.61</v>
+        <v>-60.9</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -797,16 +815,25 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.08319889375432127</v>
+        <v>-0.06867388362652233</v>
       </c>
       <c r="AK3">
-        <v>5.640625000000003</v>
+        <v>-13.2391304347826</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.019</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>-2.342307692307692</v>
+      </c>
+      <c r="AQ3">
+        <v>-1347.368421052632</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M&amp;A Capital Partners Co.,Ltd. (TSE:6080)</t>
+          <t>Daiichi Commodities Co.,Ltd. (JASDAQ:8746)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -826,28 +853,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.456</v>
-      </c>
-      <c r="E4">
-        <v>0.5329999999999999</v>
+        <v>-0.061</v>
       </c>
       <c r="G4">
-        <v>0.4892703862660944</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="H4">
-        <v>0.4892703862660944</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="I4">
-        <v>0.4754912159998804</v>
+        <v>0.2418604651162791</v>
       </c>
       <c r="J4">
-        <v>0.318456294110621</v>
+        <v>0.181064938365739</v>
       </c>
       <c r="K4">
-        <v>36.3</v>
+        <v>6.85</v>
       </c>
       <c r="L4">
-        <v>0.311587982832618</v>
+        <v>0.1593023255813953</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -871,70 +895,67 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>166.1</v>
+        <v>22.8</v>
       </c>
       <c r="V4">
-        <v>0.1307668083766336</v>
+        <v>0.7475409836065574</v>
       </c>
       <c r="W4">
-        <v>0.3126614987080103</v>
+        <v>0.1479481641468683</v>
       </c>
       <c r="X4">
-        <v>0.04502598933067345</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="Y4">
-        <v>0.2676355093773368</v>
+        <v>0.1161194904305804</v>
       </c>
       <c r="Z4">
-        <v>94.99605778051956</v>
+        <v>2.144210631295502</v>
       </c>
       <c r="AA4">
-        <v>30.25209251590269</v>
+        <v>0.3882413657986825</v>
       </c>
       <c r="AB4">
-        <v>0.04495259725060464</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="AC4">
-        <v>30.20713991865209</v>
+        <v>0.3564126920823946</v>
       </c>
       <c r="AD4">
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>6.426366680069654</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>6.426366680069654</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-159.6736333199303</v>
+        <v>-22.8</v>
       </c>
       <c r="AH4">
-        <v>0.005033866484194385</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.03880038431612205</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.1437819381067703</v>
+        <v>-2.961038961038962</v>
       </c>
       <c r="AK4">
-        <v>337.1250007145051</v>
+        <v>-0.7450980392156864</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
-        <v>-0.037</v>
+        <v>0</v>
       </c>
       <c r="AN4">
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>-2.68449282649513</v>
-      </c>
-      <c r="AQ4">
-        <v>-1464.864864864865</v>
+        <v>-2.192307692307693</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +966,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Strike Company,Limited (TSE:6196)</t>
+          <t>Hirose Tusyo Inc. (JASDAQ:7185)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -953,110 +974,122 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D5">
+        <v>0.124</v>
+      </c>
+      <c r="E5">
+        <v>0.51</v>
+      </c>
       <c r="G5">
-        <v>0.3422562141491396</v>
+        <v>0.342042755344418</v>
       </c>
       <c r="H5">
-        <v>0.3422562141491396</v>
+        <v>0.342042755344418</v>
       </c>
       <c r="I5">
-        <v>0.3977055449330784</v>
+        <v>0.3693586698337292</v>
       </c>
       <c r="J5">
-        <v>0.279956916345905</v>
+        <v>0.2668403063584268</v>
       </c>
       <c r="K5">
-        <v>16.1</v>
+        <v>21.9</v>
       </c>
       <c r="L5">
-        <v>0.3078393881453155</v>
+        <v>0.2600950118764845</v>
       </c>
       <c r="M5">
-        <v>-0</v>
+        <v>4.66984</v>
       </c>
       <c r="N5">
-        <v>-0</v>
+        <v>0.03849826875515251</v>
       </c>
       <c r="O5">
-        <v>-0</v>
+        <v>0.213234703196347</v>
       </c>
       <c r="P5">
-        <v>-0</v>
+        <v>1.86984</v>
       </c>
       <c r="Q5">
-        <v>-0</v>
+        <v>0.01541500412201154</v>
       </c>
       <c r="R5">
-        <v>-0</v>
+        <v>0.08538082191780823</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2.8</v>
+      </c>
+      <c r="T5">
+        <v>0.599592277251469</v>
       </c>
       <c r="U5">
-        <v>49.4</v>
+        <v>116.7</v>
       </c>
       <c r="V5">
-        <v>0.05117580026934632</v>
+        <v>0.9620774938169827</v>
       </c>
       <c r="W5">
-        <v>0.4065656565656566</v>
+        <v>0.2564402810304449</v>
       </c>
       <c r="X5">
-        <v>0.04493565290976192</v>
+        <v>0.04001111401181054</v>
       </c>
       <c r="Y5">
-        <v>0.3616300036558946</v>
+        <v>0.2164291670186344</v>
       </c>
       <c r="Z5">
-        <v>21.79166666666668</v>
+        <v>0.9314159292035398</v>
       </c>
       <c r="AA5">
-        <v>6.10072780203785</v>
+        <v>0.2485393118957913</v>
       </c>
       <c r="AB5">
-        <v>0.04493565290976192</v>
+        <v>0.03232249090778902</v>
       </c>
       <c r="AC5">
-        <v>6.055792149128089</v>
+        <v>0.2162168209880023</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="AG5">
-        <v>-49.4</v>
+        <v>-53.2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.3436147186147186</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.3759621077560686</v>
       </c>
       <c r="AJ5">
-        <v>-0.05393601921607162</v>
+        <v>-0.7812041116005874</v>
       </c>
       <c r="AK5">
-        <v>-98.8</v>
+        <v>-1.019157088122605</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.588</v>
       </c>
       <c r="AM5">
-        <v>-0.027</v>
+        <v>0.579</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.99685534591195</v>
+      </c>
+      <c r="AO5">
+        <v>52.89115646258504</v>
       </c>
       <c r="AP5">
-        <v>-2.352380952380952</v>
+        <v>-1.672955974842767</v>
       </c>
       <c r="AQ5">
-        <v>-770.3703703703704</v>
+        <v>53.71329879101901</v>
       </c>
     </row>
     <row r="6">
@@ -1076,46 +1109,46 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.149</v>
+        <v>0.0911</v>
       </c>
       <c r="E6">
-        <v>0.173</v>
+        <v>-0.105</v>
       </c>
       <c r="G6">
-        <v>0.1386655948553055</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="H6">
-        <v>0.1386655948553055</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="I6">
-        <v>0.1966123167363656</v>
+        <v>0.1098118962887646</v>
       </c>
       <c r="J6">
-        <v>0.1553362003475261</v>
+        <v>0.06361698799421221</v>
       </c>
       <c r="K6">
-        <v>37</v>
+        <v>10.7</v>
       </c>
       <c r="L6">
-        <v>0.1487138263665595</v>
+        <v>0.05439755973563803</v>
       </c>
       <c r="M6">
-        <v>12.7008</v>
+        <v>14.8404</v>
       </c>
       <c r="N6">
-        <v>0.03516279069767442</v>
+        <v>0.04665325369380698</v>
       </c>
       <c r="O6">
-        <v>0.3432648648648649</v>
+        <v>1.386953271028038</v>
       </c>
       <c r="P6">
-        <v>12.7008</v>
+        <v>14.8404</v>
       </c>
       <c r="Q6">
-        <v>0.03516279069767442</v>
+        <v>0.04665325369380698</v>
       </c>
       <c r="R6">
-        <v>0.3432648648648649</v>
+        <v>1.386953271028038</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1124,73 +1157,73 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>101.7</v>
+        <v>113.5</v>
       </c>
       <c r="V6">
-        <v>0.28156146179402</v>
+        <v>0.3568060358377869</v>
       </c>
       <c r="W6">
-        <v>0.2343255224825839</v>
+        <v>0.05774419859686993</v>
       </c>
       <c r="X6">
-        <v>0.04677123299641236</v>
+        <v>0.03276718525997005</v>
       </c>
       <c r="Y6">
-        <v>0.1875542894861715</v>
+        <v>0.02497701333689988</v>
       </c>
       <c r="Z6">
-        <v>6.502148038185783</v>
+        <v>2.331452683481888</v>
       </c>
       <c r="AA6">
-        <v>1.010018970348901</v>
+        <v>0.1483199973741411</v>
       </c>
       <c r="AB6">
-        <v>0.04500366843444394</v>
+        <v>0.03191007668583321</v>
       </c>
       <c r="AC6">
-        <v>0.9650153019144567</v>
+        <v>0.1164099206883079</v>
       </c>
       <c r="AD6">
-        <v>0.768</v>
+        <v>19.1</v>
       </c>
       <c r="AE6">
-        <v>36.36427797996117</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>37.13227797996117</v>
+        <v>19.1</v>
       </c>
       <c r="AG6">
-        <v>-64.56772202003884</v>
+        <v>-94.40000000000001</v>
       </c>
       <c r="AH6">
-        <v>0.09321935487695822</v>
+        <v>0.0566429418742586</v>
       </c>
       <c r="AI6">
-        <v>0.1655235631462632</v>
+        <v>0.0859199280251912</v>
       </c>
       <c r="AJ6">
-        <v>-0.2176692383571308</v>
+        <v>-0.4219937416182387</v>
       </c>
       <c r="AK6">
-        <v>-0.5265149036095504</v>
+        <v>-0.8676470588235295</v>
       </c>
       <c r="AL6">
-        <v>0.675</v>
+        <v>1.01</v>
       </c>
       <c r="AM6">
-        <v>0.286</v>
+        <v>0.631</v>
       </c>
       <c r="AN6">
-        <v>0.01366791243993593</v>
+        <v>0.5753012048192772</v>
       </c>
       <c r="AO6">
-        <v>70.66666666666667</v>
+        <v>21.38613861386139</v>
       </c>
       <c r="AP6">
-        <v>-1.149096316427102</v>
+        <v>-2.843373493975903</v>
       </c>
       <c r="AQ6">
-        <v>166.7832167832168</v>
+        <v>34.23137876386688</v>
       </c>
     </row>
     <row r="7">
@@ -1201,7 +1234,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hirose Tusyo Inc. (JASDAQ:7185)</t>
+          <t>Yutaka Trusty Securities Co.,Ltd. (JASDAQ:8747)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1210,118 +1243,121 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.124</v>
+        <v>0.0446</v>
       </c>
       <c r="E7">
-        <v>0.6890000000000001</v>
+        <v>-0.0779</v>
       </c>
       <c r="G7">
-        <v>0.3851444291609353</v>
+        <v>0.2769726247987118</v>
       </c>
       <c r="H7">
-        <v>0.3851444291609353</v>
+        <v>0.2769726247987118</v>
       </c>
       <c r="I7">
-        <v>0.3259972489683631</v>
+        <v>0.177133655394525</v>
       </c>
       <c r="J7">
-        <v>0.2112016365111275</v>
+        <v>0.09587968503006399</v>
       </c>
       <c r="K7">
-        <v>15.1</v>
+        <v>5.31</v>
       </c>
       <c r="L7">
-        <v>0.2077028885832187</v>
+        <v>0.08550724637681159</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>16.03569</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.3729230232558139</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>3.01990395480226</v>
       </c>
       <c r="P7">
-        <v>-0</v>
+        <v>2.33569</v>
       </c>
       <c r="Q7">
-        <v>-0</v>
+        <v>0.05431837209302326</v>
       </c>
       <c r="R7">
-        <v>-0</v>
+        <v>0.4398662900188324</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>13.7</v>
+      </c>
+      <c r="T7">
+        <v>0.85434427829423</v>
       </c>
       <c r="U7">
-        <v>89.40000000000001</v>
+        <v>41.2</v>
       </c>
       <c r="V7">
-        <v>0.8426013195098965</v>
+        <v>0.9581395348837209</v>
       </c>
       <c r="W7">
-        <v>0.2240356083086053</v>
+        <v>0.05759219088937093</v>
       </c>
       <c r="X7">
-        <v>0.06082207497707617</v>
+        <v>0.03611794457971709</v>
       </c>
       <c r="Y7">
-        <v>0.1632135333315291</v>
+        <v>0.02147424630965384</v>
       </c>
       <c r="Z7">
-        <v>2.568904593639575</v>
+        <v>1.285182119205298</v>
       </c>
       <c r="AA7">
-        <v>0.5425568542176313</v>
+        <v>0.1232228567956741</v>
       </c>
       <c r="AB7">
-        <v>0.04527917888157854</v>
+        <v>0.03312413384746642</v>
       </c>
       <c r="AC7">
-        <v>0.4972776753360528</v>
+        <v>0.0900987229482077</v>
       </c>
       <c r="AD7">
-        <v>94.40000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>94.40000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="AG7">
-        <v>5</v>
+        <v>-29.4</v>
       </c>
       <c r="AH7">
-        <v>0.4708229426433915</v>
+        <v>0.2153284671532847</v>
       </c>
       <c r="AI7">
-        <v>0.5250278086763071</v>
+        <v>0.1227887617065557</v>
       </c>
       <c r="AJ7">
-        <v>0.045004500450045</v>
+        <v>-2.161764705882353</v>
       </c>
       <c r="AK7">
-        <v>0.05530973451327433</v>
+        <v>-0.5355191256830603</v>
       </c>
       <c r="AL7">
-        <v>0.426</v>
+        <v>0.123</v>
       </c>
       <c r="AM7">
-        <v>0.417</v>
+        <v>-0.228</v>
       </c>
       <c r="AN7">
-        <v>3.853061224489796</v>
+        <v>0.8251748251748252</v>
       </c>
       <c r="AO7">
-        <v>55.63380281690141</v>
+        <v>89.4308943089431</v>
       </c>
       <c r="AP7">
-        <v>0.2040816326530612</v>
+        <v>-2.055944055944056</v>
       </c>
       <c r="AQ7">
-        <v>56.83453237410072</v>
+        <v>-48.24561403508773</v>
       </c>
     </row>
     <row r="8">
@@ -1341,121 +1377,124 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.11</v>
+        <v>0.00175</v>
       </c>
       <c r="E8">
-        <v>0.0958</v>
+        <v>-0.128</v>
+      </c>
+      <c r="F8">
+        <v>0.166</v>
       </c>
       <c r="G8">
-        <v>0.3017622443566924</v>
+        <v>0.1959750463313409</v>
       </c>
       <c r="H8">
-        <v>0.2785406966464313</v>
+        <v>0.1959750463313409</v>
       </c>
       <c r="I8">
-        <v>0.2371367949549125</v>
+        <v>0.2433504737542742</v>
       </c>
       <c r="J8">
-        <v>0.1920964730114165</v>
+        <v>0.1618903852102344</v>
       </c>
       <c r="K8">
-        <v>433.4</v>
+        <v>404.9</v>
       </c>
       <c r="L8">
-        <v>0.127718512406436</v>
+        <v>0.1056876615071389</v>
       </c>
       <c r="M8">
-        <v>382.6974</v>
+        <v>218.871</v>
       </c>
       <c r="N8">
-        <v>0.07804417162900726</v>
+        <v>0.03801031572366365</v>
       </c>
       <c r="O8">
-        <v>0.8830119981541302</v>
+        <v>0.5405556927636453</v>
       </c>
       <c r="P8">
-        <v>202.6974</v>
+        <v>218.7</v>
       </c>
       <c r="Q8">
-        <v>0.04133644669222612</v>
+        <v>0.03798061894341982</v>
       </c>
       <c r="R8">
-        <v>0.4676912782648823</v>
+        <v>0.5401333662632749</v>
       </c>
       <c r="S8">
-        <v>180</v>
+        <v>0.1709999999999923</v>
       </c>
       <c r="T8">
-        <v>0.4703455001262094</v>
+        <v>0.000781282125087345</v>
       </c>
       <c r="U8">
-        <v>8255.9</v>
+        <v>6603.7</v>
       </c>
       <c r="V8">
-        <v>1.683640590586508</v>
+        <v>1.146834080094474</v>
       </c>
       <c r="W8">
-        <v>0.1040326452232357</v>
+        <v>0.09721255191952173</v>
       </c>
       <c r="X8">
-        <v>0.07971354814774223</v>
+        <v>0.07759335499189299</v>
       </c>
       <c r="Y8">
-        <v>0.02431909707549348</v>
+        <v>0.01961919692762874</v>
       </c>
       <c r="Z8">
-        <v>0.7975275564643118</v>
+        <v>0.3830716928307168</v>
       </c>
       <c r="AA8">
-        <v>0.1532022307262076</v>
+        <v>0.06201562391550133</v>
       </c>
       <c r="AB8">
-        <v>0.04541776134099568</v>
+        <v>0.03289992499644442</v>
       </c>
       <c r="AC8">
-        <v>0.107784469385212</v>
+        <v>0.0291156989190569</v>
       </c>
       <c r="AD8">
-        <v>9551</v>
+        <v>16859.6</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>9551</v>
+        <v>16859.6</v>
       </c>
       <c r="AG8">
-        <v>1295.1</v>
+        <v>10255.9</v>
       </c>
       <c r="AH8">
-        <v>0.6607585128609578</v>
+        <v>0.745412904880227</v>
       </c>
       <c r="AI8">
-        <v>0.6358262212576724</v>
+        <v>0.735735512954227</v>
       </c>
       <c r="AJ8">
-        <v>0.2089309048671496</v>
+        <v>0.6404293716162631</v>
       </c>
       <c r="AK8">
-        <v>0.1914270933412165</v>
+        <v>0.6287488658378086</v>
       </c>
       <c r="AL8">
-        <v>54.8</v>
+        <v>246.9</v>
       </c>
       <c r="AM8">
-        <v>37.5</v>
+        <v>227.3</v>
       </c>
       <c r="AN8">
-        <v>10.37024972855592</v>
+        <v>14.9292482068538</v>
       </c>
       <c r="AO8">
-        <v>14.68430656934307</v>
+        <v>3.776022681247468</v>
       </c>
       <c r="AP8">
-        <v>1.406188925081434</v>
+        <v>9.081643495970955</v>
       </c>
       <c r="AQ8">
-        <v>21.45866666666667</v>
+        <v>4.10162780466344</v>
       </c>
     </row>
     <row r="9">
@@ -1466,7 +1505,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Yutaka Shoji Co., Ltd. (JASDAQ:8747)</t>
+          <t>Akatsuki Corp. (TSE:8737)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1475,115 +1514,121 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.076</v>
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.0118</v>
       </c>
       <c r="G9">
-        <v>0.1810035842293907</v>
+        <v>0.05648899188876014</v>
       </c>
       <c r="H9">
-        <v>0.1810035842293907</v>
+        <v>0.05648899188876014</v>
       </c>
       <c r="I9">
-        <v>0.1340501792114696</v>
+        <v>0.05156431054461182</v>
       </c>
       <c r="J9">
-        <v>0.103592519445054</v>
+        <v>0.03503671057092402</v>
       </c>
       <c r="K9">
-        <v>5.69</v>
+        <v>15.5</v>
       </c>
       <c r="L9">
-        <v>0.1019713261648746</v>
+        <v>0.04490150637311704</v>
       </c>
       <c r="M9">
-        <v>1.4837</v>
+        <v>9.158000000000001</v>
       </c>
       <c r="N9">
-        <v>0.02826095238095238</v>
+        <v>0.1049026345933563</v>
       </c>
       <c r="O9">
-        <v>0.2607557117750439</v>
+        <v>0.5908387096774195</v>
       </c>
       <c r="P9">
-        <v>1.4837</v>
+        <v>5.698</v>
       </c>
       <c r="Q9">
-        <v>0.02826095238095238</v>
+        <v>0.06526918671248569</v>
       </c>
       <c r="R9">
-        <v>0.2607557117750439</v>
+        <v>0.3676129032258065</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3.460000000000001</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.3778117492902381</v>
       </c>
       <c r="U9">
-        <v>51.4</v>
+        <v>166.3</v>
       </c>
       <c r="V9">
-        <v>0.9790476190476191</v>
+        <v>1.904925544100802</v>
       </c>
       <c r="W9">
-        <v>0.06702002355712602</v>
+        <v>0.1347826086956522</v>
       </c>
       <c r="X9">
-        <v>0.04973110211818056</v>
+        <v>0.07932859904965395</v>
       </c>
       <c r="Y9">
-        <v>0.01728892143894546</v>
+        <v>0.05545400964599823</v>
       </c>
       <c r="Z9">
-        <v>1.035250463821892</v>
+        <v>1.268651231165013</v>
       </c>
       <c r="AA9">
-        <v>0.1072442038039706</v>
+        <v>0.04444936600177497</v>
       </c>
       <c r="AB9">
-        <v>0.04564828909407507</v>
+        <v>0.03290998164824396</v>
       </c>
       <c r="AC9">
-        <v>0.0615959147098955</v>
+        <v>0.01153938435353101</v>
       </c>
       <c r="AD9">
-        <v>14.1</v>
+        <v>265.3</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>14.1</v>
+        <v>265.3</v>
       </c>
       <c r="AG9">
-        <v>-37.3</v>
+        <v>99</v>
       </c>
       <c r="AH9">
-        <v>0.2117117117117117</v>
+        <v>0.7524106636415201</v>
       </c>
       <c r="AI9">
-        <v>0.1326434619002822</v>
+        <v>0.6816546762589928</v>
       </c>
       <c r="AJ9">
-        <v>-2.453947368421052</v>
+        <v>0.5314009661835748</v>
       </c>
       <c r="AK9">
-        <v>-0.6794171220400728</v>
+        <v>0.4441453566621804</v>
       </c>
       <c r="AL9">
-        <v>0.287</v>
+        <v>4.11</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>3.949</v>
       </c>
       <c r="AN9">
-        <v>1.305555555555555</v>
+        <v>12.00452488687783</v>
       </c>
       <c r="AO9">
-        <v>26.06271777003485</v>
+        <v>4.330900243309002</v>
       </c>
       <c r="AP9">
-        <v>-3.453703703703703</v>
+        <v>4.479638009049774</v>
+      </c>
+      <c r="AQ9">
+        <v>4.507470245631805</v>
       </c>
     </row>
     <row r="10">
@@ -1594,7 +1639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Daiichi Commodities Co.,Ltd. (JASDAQ:8746)</t>
+          <t>Mito Securities Co., Ltd. (TSE:8622)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1603,34 +1648,37 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.0634</v>
+        <v>-0.00766</v>
+      </c>
+      <c r="E10">
+        <v>-0.0221</v>
       </c>
       <c r="G10">
-        <v>-0.07328042328042329</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.07328042328042329</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0.07671957671957673</v>
+        <v>0.01232559317221113</v>
       </c>
       <c r="J10">
-        <v>0.0614868491680086</v>
+        <v>0.009376083522051657</v>
       </c>
       <c r="K10">
-        <v>2.77</v>
+        <v>19.6</v>
       </c>
       <c r="L10">
-        <v>0.07328042328042329</v>
+        <v>0.1472577009767093</v>
       </c>
       <c r="M10">
-        <v>-0</v>
+        <v>5.28</v>
       </c>
       <c r="N10">
-        <v>-0</v>
+        <v>0.03611491108071136</v>
       </c>
       <c r="O10">
-        <v>-0</v>
+        <v>0.2693877551020408</v>
       </c>
       <c r="P10">
         <v>-0</v>
@@ -1642,70 +1690,76 @@
         <v>-0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>5.28</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>36.3</v>
+        <v>253.4</v>
       </c>
       <c r="V10">
-        <v>1.201986754966887</v>
+        <v>1.733242134062928</v>
       </c>
       <c r="W10">
-        <v>0.05770833333333333</v>
+        <v>0.05759623861298854</v>
       </c>
       <c r="X10">
-        <v>0.04493565290976192</v>
+        <v>0.03885778773292556</v>
       </c>
       <c r="Y10">
-        <v>0.01277268042357142</v>
+        <v>0.01873845088006298</v>
       </c>
       <c r="Z10">
-        <v>1.702702702702703</v>
+        <v>0.7963035350883613</v>
       </c>
       <c r="AA10">
-        <v>0.1046938242590417</v>
+        <v>0.00746620845389347</v>
       </c>
       <c r="AB10">
-        <v>0.04493565290976192</v>
+        <v>0.0322744783331238</v>
       </c>
       <c r="AC10">
-        <v>0.05975817134927974</v>
+        <v>-0.02480826987923033</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>56.7</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>9.047317743893492</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>65.74731774389349</v>
       </c>
       <c r="AG10">
-        <v>-36.3</v>
+        <v>-187.6526822561065</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>0.3102059438343034</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>0.1505385724714339</v>
       </c>
       <c r="AJ10">
-        <v>5.950819672131149</v>
+        <v>4.526912905098265</v>
       </c>
       <c r="AK10">
-        <v>-2.160714285714285</v>
+        <v>-1.023482015254932</v>
       </c>
       <c r="AL10">
         <v>0</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>-2.18</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>16.43478260869565</v>
       </c>
       <c r="AP10">
-        <v>-12.18120805369127</v>
+        <v>-54.39208181336421</v>
+      </c>
+      <c r="AQ10">
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
@@ -1716,7 +1770,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Akatsuki Corp. (TSE:8737)</t>
+          <t>Okasan Securities Group Inc. (TSE:8609)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1725,121 +1779,118 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.4320000000000001</v>
+        <v>-0.068</v>
       </c>
       <c r="E11">
-        <v>0.0139</v>
+        <v>-0.162</v>
       </c>
       <c r="G11">
-        <v>0.06583629893238434</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.06583629893238434</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.05664294187425861</v>
+        <v>0.008486282392677177</v>
       </c>
       <c r="J11">
-        <v>0.04389827995255041</v>
+        <v>0.005819473549176843</v>
       </c>
       <c r="K11">
-        <v>10.3</v>
+        <v>51.3</v>
       </c>
       <c r="L11">
-        <v>0.03054567022538553</v>
+        <v>0.08365949119373776</v>
       </c>
       <c r="M11">
-        <v>2.2734</v>
+        <v>18.791</v>
       </c>
       <c r="N11">
-        <v>0.02095299539170507</v>
+        <v>0.02614218141346689</v>
       </c>
       <c r="O11">
-        <v>0.2207184466019417</v>
+        <v>0.3662962962962963</v>
       </c>
       <c r="P11">
-        <v>2.2644</v>
+        <v>18.791</v>
       </c>
       <c r="Q11">
-        <v>0.02087004608294931</v>
+        <v>0.02614218141346689</v>
       </c>
       <c r="R11">
-        <v>0.2198446601941748</v>
+        <v>0.3662962962962963</v>
       </c>
       <c r="S11">
-        <v>0.008999999999999897</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0.003958828186856645</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>134.9</v>
+        <v>753.4</v>
       </c>
       <c r="V11">
-        <v>1.243317972350231</v>
+        <v>1.048135781858653</v>
       </c>
       <c r="W11">
-        <v>0.09763033175355451</v>
+        <v>0.03702367205542725</v>
       </c>
       <c r="X11">
-        <v>0.09586878708977462</v>
+        <v>0.05145758361780049</v>
       </c>
       <c r="Y11">
-        <v>0.001761544663779896</v>
+        <v>-0.01443391156237324</v>
       </c>
       <c r="Z11">
-        <v>1.292449214258336</v>
+        <v>0.2859299711055147</v>
       </c>
       <c r="AA11">
-        <v>0.05673629743196627</v>
+        <v>0.001663961903765442</v>
       </c>
       <c r="AB11">
-        <v>0.04547589240523034</v>
+        <v>0.03262872328678876</v>
       </c>
       <c r="AC11">
-        <v>0.01126040502673593</v>
+        <v>-0.03096476138302332</v>
       </c>
       <c r="AD11">
-        <v>309.5</v>
+        <v>844.2</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>58.48105818405177</v>
       </c>
       <c r="AF11">
-        <v>309.5</v>
+        <v>902.6810581840518</v>
       </c>
       <c r="AG11">
-        <v>174.6</v>
+        <v>149.2810581840519</v>
       </c>
       <c r="AH11">
-        <v>0.7404306220095693</v>
+        <v>0.5567015745438266</v>
       </c>
       <c r="AI11">
-        <v>0.7280639849447188</v>
+        <v>0.3575709373051831</v>
       </c>
       <c r="AJ11">
-        <v>0.6167432002825856</v>
+        <v>0.1719667268127409</v>
       </c>
       <c r="AK11">
-        <v>0.6016540317022743</v>
+        <v>0.0842881004763919</v>
       </c>
       <c r="AL11">
-        <v>4.51</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>4.454</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="AN11">
-        <v>12.58130081300813</v>
-      </c>
-      <c r="AO11">
-        <v>4.235033259423504</v>
+        <v>49.9526627218935</v>
       </c>
       <c r="AP11">
-        <v>7.097560975609755</v>
+        <v>8.833198709115495</v>
       </c>
       <c r="AQ11">
-        <v>4.288280197575214</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1901,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mito Securities Co., Ltd. (TSE:8622)</t>
+          <t>Maruhachi Securities Co., Ltd. (JASDAQ:8700)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1859,7 +1910,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.06909999999999999</v>
+        <v>-0.0562</v>
+      </c>
+      <c r="E12">
+        <v>-0.217</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1868,25 +1922,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01279070298148363</v>
+        <v>0.0007188660268435042</v>
       </c>
       <c r="J12">
-        <v>0.01279070298148363</v>
+        <v>0.0005226350303267638</v>
       </c>
       <c r="K12">
-        <v>-3.91</v>
+        <v>2.69</v>
       </c>
       <c r="L12">
-        <v>-0.04111461619348055</v>
+        <v>0.1080321285140562</v>
       </c>
       <c r="M12">
-        <v>6.34</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.04696296296296296</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>-1.621483375959079</v>
+        <v>-0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1895,76 +1949,73 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
-        <v>6.34</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>215.2</v>
+        <v>34.2</v>
       </c>
       <c r="V12">
-        <v>1.594074074074074</v>
+        <v>0.9771428571428572</v>
       </c>
       <c r="W12">
-        <v>-0.01121629374641423</v>
+        <v>0.04236220472440945</v>
       </c>
       <c r="X12">
-        <v>0.05071128107437016</v>
+        <v>0.03185122666847788</v>
       </c>
       <c r="Y12">
-        <v>-0.06192757482078438</v>
+        <v>0.01051097805593157</v>
       </c>
       <c r="Z12">
-        <v>0.5211872174550489</v>
+        <v>0.6526781884919716</v>
       </c>
       <c r="AA12">
-        <v>0.006666350896213451</v>
+        <v>0.0003411124848361189</v>
       </c>
       <c r="AB12">
-        <v>0.04511398054108956</v>
+        <v>0.03183074434264307</v>
       </c>
       <c r="AC12">
-        <v>-0.03844762964487611</v>
+        <v>-0.03148963185780695</v>
       </c>
       <c r="AD12">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>10.66802073230454</v>
+        <v>0.05050117965798374</v>
       </c>
       <c r="AF12">
-        <v>43.66802073230453</v>
+        <v>0.05050117965798374</v>
       </c>
       <c r="AG12">
-        <v>-171.5319792676954</v>
+        <v>-34.14949882034202</v>
       </c>
       <c r="AH12">
-        <v>0.2444087114936569</v>
+        <v>0.001440811913048843</v>
       </c>
       <c r="AI12">
-        <v>0.1137282752064112</v>
+        <v>0.000773958494493949</v>
       </c>
       <c r="AJ12">
-        <v>4.695392439888359</v>
+        <v>-40.15220629567473</v>
       </c>
       <c r="AK12">
-        <v>-1.016377264622751</v>
+        <v>-1.099805076341707</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>-2.7</v>
+        <v>-0.721</v>
       </c>
       <c r="AN12">
-        <v>9.850746268656716</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>-51.20357590080461</v>
+        <v>-1219.624957869358</v>
       </c>
       <c r="AQ12">
         <v>-0</v>
@@ -1978,7 +2029,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sawada Holdings Co., Ltd. (JASDAQ:8699)</t>
+          <t>The Kosei Securities Co., Ltd. (TSE:8617)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1987,10 +2038,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0641</v>
+        <v>-0.0609</v>
       </c>
       <c r="E13">
-        <v>0.08710000000000001</v>
+        <v>-0.0612</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1999,103 +2050,94 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.347945298920405e-06</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>6.748093374311581e-06</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>67.90000000000001</v>
+        <v>4.01</v>
       </c>
       <c r="L13">
-        <v>0.1271059528266567</v>
+        <v>0.3208</v>
       </c>
       <c r="M13">
-        <v>3.6828</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.01090876777251185</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.05423858615611193</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>3.6828</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.01090876777251185</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.05423858615611193</v>
+        <v>-0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>816.6</v>
+        <v>71.8</v>
       </c>
       <c r="V13">
-        <v>2.418838862559241</v>
+        <v>1.248695652173913</v>
       </c>
       <c r="W13">
-        <v>0.1453028033383266</v>
+        <v>0.02678690714762859</v>
       </c>
       <c r="X13">
-        <v>0.07541690312580068</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="Y13">
-        <v>0.06988590021252589</v>
+        <v>-0.005041766568659314</v>
       </c>
       <c r="Z13">
-        <v>1.400564253586455</v>
+        <v>0.143348623853211</v>
       </c>
       <c r="AA13">
-        <v>9.451138359924398e-06</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04277068369818573</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="AC13">
-        <v>-0.04276123255982581</v>
+        <v>-0.03182867371628791</v>
       </c>
       <c r="AD13">
-        <v>576.3</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>0.02270263810658359</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>576.3227026381065</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>-240.2772973618935</v>
+        <v>-71.8</v>
       </c>
       <c r="AH13">
-        <v>0.6306033332737088</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>0.4485620478644657</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>-2.468872019053582</v>
+        <v>5.020979020979022</v>
       </c>
       <c r="AK13">
-        <v>-0.5131688318573607</v>
+        <v>-0.8103837471783295</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>64033.33333333334</v>
-      </c>
-      <c r="AP13">
-        <v>-26697.47748465484</v>
       </c>
     </row>
     <row r="14">
@@ -2106,7 +2148,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Matsui Securities Co., Ltd. (TSE:8628)</t>
+          <t>The Imamura Securities Co., Ltd. (JASDAQ:7175)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2115,10 +2157,10 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.0679</v>
+        <v>0.0267</v>
       </c>
       <c r="E14">
-        <v>-0.123</v>
+        <v>0.0354</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -2133,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>63.9</v>
+        <v>6.3</v>
       </c>
       <c r="L14">
-        <v>0.294877711121366</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="M14">
         <v>-0</v>
@@ -2160,64 +2202,61 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>358.3</v>
+        <v>60.4</v>
       </c>
       <c r="V14">
-        <v>0.1753364325911426</v>
+        <v>1.650273224043716</v>
       </c>
       <c r="W14">
-        <v>0.07450157397691499</v>
+        <v>0.08139534883720929</v>
       </c>
       <c r="X14">
-        <v>0.05326787978273125</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="Y14">
-        <v>0.02123369419418375</v>
+        <v>0.04956667512092139</v>
       </c>
       <c r="Z14">
-        <v>0.1312855931176542</v>
+        <v>1.329749103942652</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04384330628463527</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="AC14">
-        <v>-0.04384330628463527</v>
+        <v>-0.03182867371628791</v>
       </c>
       <c r="AD14">
-        <v>953.6</v>
+        <v>0</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>953.6</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>595.3</v>
+        <v>-60.4</v>
       </c>
       <c r="AH14">
-        <v>0.3181742350939241</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>0.5556461950821583</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>0.2255949674094285</v>
+        <v>2.53781512605042</v>
       </c>
       <c r="AK14">
-        <v>0.438397525590986</v>
+        <v>-2.406374501992032</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
-        <v>-1.17</v>
-      </c>
-      <c r="AQ14">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2228,7 +2267,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kyokuto Securities Co., Ltd. (TSE:8706)</t>
+          <t>Ichiyoshi Securities Co., Ltd. (TSE:8624)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2237,10 +2276,7 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.16</v>
-      </c>
-      <c r="E15">
-        <v>-0.376</v>
+        <v>-0.0357</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -2255,88 +2291,91 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.16</v>
+        <v>-5.64</v>
       </c>
       <c r="L15">
-        <v>0.09809885931558936</v>
+        <v>-0.03286713286713287</v>
       </c>
       <c r="M15">
-        <v>-0</v>
+        <v>46.15600000000001</v>
       </c>
       <c r="N15">
-        <v>-0</v>
+        <v>0.2833394720687539</v>
       </c>
       <c r="O15">
-        <v>-0</v>
+        <v>-8.183687943262413</v>
       </c>
       <c r="P15">
-        <v>-0</v>
+        <v>16.056</v>
       </c>
       <c r="Q15">
-        <v>-0</v>
+        <v>0.09856353591160222</v>
       </c>
       <c r="R15">
-        <v>-0</v>
+        <v>-2.846808510638298</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>30.1</v>
+      </c>
+      <c r="T15">
+        <v>0.65213623364243</v>
       </c>
       <c r="U15">
-        <v>133.8</v>
+        <v>156.1</v>
       </c>
       <c r="V15">
-        <v>0.6143250688705234</v>
+        <v>0.9582565991405769</v>
       </c>
       <c r="W15">
-        <v>0.01257309941520468</v>
+        <v>-0.01843739784243217</v>
       </c>
       <c r="X15">
-        <v>0.05316651497254796</v>
+        <v>0.03239574325282549</v>
       </c>
       <c r="Y15">
-        <v>-0.04059341555734328</v>
+        <v>-0.05083314109525765</v>
       </c>
       <c r="Z15">
-        <v>0.1394116087993639</v>
+        <v>1.58624514697726</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0.04385240215571449</v>
+        <v>0.03187898712687414</v>
       </c>
       <c r="AC15">
-        <v>-0.04385240215571449</v>
+        <v>-0.03187898712687414</v>
       </c>
       <c r="AD15">
-        <v>100.4</v>
+        <v>5.91</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
       <c r="AF15">
-        <v>100.4</v>
+        <v>5.91</v>
       </c>
       <c r="AG15">
-        <v>-33.40000000000001</v>
+        <v>-150.19</v>
       </c>
       <c r="AH15">
-        <v>0.3155248271527341</v>
+        <v>0.03500977430247023</v>
       </c>
       <c r="AI15">
-        <v>0.1937475878039367</v>
+        <v>0.0218314801817443</v>
       </c>
       <c r="AJ15">
-        <v>-0.1811279826464209</v>
+        <v>-11.81667977970102</v>
       </c>
       <c r="AK15">
-        <v>-0.08688865764828306</v>
+        <v>-1.310444114824186</v>
       </c>
       <c r="AL15">
         <v>0</v>
       </c>
       <c r="AM15">
-        <v>-2</v>
+        <v>-0.18</v>
       </c>
       <c r="AQ15">
         <v>-0</v>
@@ -2350,7 +2389,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IwaiCosmo Holdings, Inc. (TSE:8707)</t>
+          <t>Marusan Securities Co., Ltd. (TSE:8613)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2359,10 +2398,10 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.0005600000000000001</v>
+        <v>-0.0307</v>
       </c>
       <c r="E16">
-        <v>-0.09179999999999999</v>
+        <v>-0.0793</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2377,28 +2416,28 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.5</v>
+        <v>22</v>
       </c>
       <c r="L16">
-        <v>0.1748057713651499</v>
+        <v>0.1337386018237082</v>
       </c>
       <c r="M16">
-        <v>16.309</v>
+        <v>3.7905</v>
       </c>
       <c r="N16">
-        <v>0.05787437899219303</v>
+        <v>0.01270700636942675</v>
       </c>
       <c r="O16">
-        <v>0.5177460317460316</v>
+        <v>0.1722954545454546</v>
       </c>
       <c r="P16">
-        <v>16.309</v>
+        <v>3.7905</v>
       </c>
       <c r="Q16">
-        <v>0.05787437899219303</v>
+        <v>0.01270700636942675</v>
       </c>
       <c r="R16">
-        <v>0.5177460317460316</v>
+        <v>0.1722954545454546</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2407,55 +2446,55 @@
         <v>0</v>
       </c>
       <c r="U16">
-        <v>83.40000000000001</v>
+        <v>315</v>
       </c>
       <c r="V16">
-        <v>0.2959545777146913</v>
+        <v>1.055983908816628</v>
       </c>
       <c r="W16">
-        <v>0.07340946166394779</v>
+        <v>0.05673027333677153</v>
       </c>
       <c r="X16">
-        <v>0.05255809484536084</v>
+        <v>0.03319626767812435</v>
       </c>
       <c r="Y16">
-        <v>0.02085136681858696</v>
+        <v>0.02353400565864718</v>
       </c>
       <c r="Z16">
-        <v>0.3468719923002887</v>
+        <v>0.9797498511018464</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0.0439085191193942</v>
+        <v>0.03194429934535591</v>
       </c>
       <c r="AC16">
-        <v>-0.0439085191193942</v>
+        <v>-0.03194429934535591</v>
       </c>
       <c r="AD16">
-        <v>120.3</v>
+        <v>26.1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>120.3</v>
+        <v>26.1</v>
       </c>
       <c r="AG16">
-        <v>36.89999999999999</v>
+        <v>-288.9</v>
       </c>
       <c r="AH16">
-        <v>0.2991793086296941</v>
+        <v>0.08045622688039457</v>
       </c>
       <c r="AI16">
-        <v>0.2075927523727351</v>
+        <v>0.05742574257425743</v>
       </c>
       <c r="AJ16">
-        <v>0.1157828679008472</v>
+        <v>-30.73404255319138</v>
       </c>
       <c r="AK16">
-        <v>0.07438016528925619</v>
+        <v>-2.070967741935484</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2472,7 +2511,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tokai Tokyo Financial Holdings, Inc. (TSE:8616)</t>
+          <t>Aizawa Securities Co., Ltd. (TSE:8708)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2481,10 +2520,10 @@
         </is>
       </c>
       <c r="D17">
-        <v>-0.06480000000000001</v>
+        <v>0.00936</v>
       </c>
       <c r="E17">
-        <v>0.0337</v>
+        <v>-0.153</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -2493,103 +2532,97 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01165723747372411</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.01165723747372411</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>-12.4</v>
+        <v>13.1</v>
       </c>
       <c r="L17">
-        <v>-0.02413390424289607</v>
+        <v>0.09154437456324249</v>
       </c>
       <c r="M17">
-        <v>31.8</v>
+        <v>26.5765</v>
       </c>
       <c r="N17">
-        <v>0.0426216324889425</v>
+        <v>0.09167471541911006</v>
       </c>
       <c r="O17">
-        <v>-2.564516129032258</v>
+        <v>2.028740458015267</v>
       </c>
       <c r="P17">
-        <v>-0</v>
+        <v>12.6765</v>
       </c>
       <c r="Q17">
-        <v>-0</v>
+        <v>0.04372714729216972</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>0.9676717557251909</v>
       </c>
       <c r="S17">
-        <v>31.8</v>
+        <v>13.9</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>0.5230184561548736</v>
       </c>
       <c r="U17">
-        <v>615.8</v>
+        <v>166.5</v>
       </c>
       <c r="V17">
-        <v>0.8253585310280123</v>
+        <v>0.5743359779234219</v>
       </c>
       <c r="W17">
-        <v>-0.008309321182067949</v>
+        <v>0.02686077506663933</v>
       </c>
       <c r="X17">
-        <v>0.1594258724985329</v>
+        <v>0.03491808926004734</v>
       </c>
       <c r="Y17">
-        <v>-0.1677351936806008</v>
+        <v>-0.008057314193408011</v>
       </c>
       <c r="Z17">
-        <v>0.107114134803076</v>
+        <v>0.3902372511589856</v>
       </c>
       <c r="AA17">
-        <v>0.001248654906191954</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0.04556684389786715</v>
+        <v>0.03206584895820039</v>
       </c>
       <c r="AC17">
-        <v>-0.04431818899167519</v>
+        <v>-0.03206584895820039</v>
       </c>
       <c r="AD17">
-        <v>4737</v>
+        <v>57.3</v>
       </c>
       <c r="AE17">
-        <v>47.05255693000277</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>4784.052556930003</v>
+        <v>57.3</v>
       </c>
       <c r="AG17">
-        <v>4168.252556930002</v>
+        <v>-109.2</v>
       </c>
       <c r="AH17">
-        <v>0.8650850962393362</v>
+        <v>0.1650345622119816</v>
       </c>
       <c r="AI17">
-        <v>0.7627935754008409</v>
+        <v>0.1042766151046406</v>
       </c>
       <c r="AJ17">
-        <v>0.8481793905999107</v>
+        <v>-0.6043165467625899</v>
       </c>
       <c r="AK17">
-        <v>0.7369673834733315</v>
+        <v>-0.2851174934725849</v>
       </c>
       <c r="AL17">
         <v>0</v>
       </c>
       <c r="AM17">
-        <v>-6.19</v>
-      </c>
-      <c r="AN17">
-        <v>307.5974025974026</v>
-      </c>
-      <c r="AP17">
-        <v>270.6657504500001</v>
+        <v>-4.77</v>
       </c>
       <c r="AQ17">
         <v>-0</v>
@@ -2603,7 +2636,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Monex Group, Inc. (TSE:8698)</t>
+          <t>INV Inc. (JASDAQ:7338)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2612,10 +2645,10 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.0305</v>
+        <v>0.0204</v>
       </c>
       <c r="E18">
-        <v>-0.197</v>
+        <v>-0.171</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2624,106 +2657,97 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.0085513241830973</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.00427566209154865</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.3</v>
+        <v>1.96</v>
       </c>
       <c r="L18">
-        <v>0.02226064404581803</v>
+        <v>0.04863523573200993</v>
       </c>
       <c r="M18">
-        <v>44.2</v>
+        <v>2.01684</v>
       </c>
       <c r="N18">
-        <v>0.07012533714104395</v>
+        <v>0.05131908396946566</v>
       </c>
       <c r="O18">
-        <v>4.29126213592233</v>
+        <v>1.029</v>
       </c>
       <c r="P18">
-        <v>12.8</v>
+        <v>2.01684</v>
       </c>
       <c r="Q18">
-        <v>0.0203077899412978</v>
+        <v>0.05131908396946566</v>
       </c>
       <c r="R18">
-        <v>1.242718446601942</v>
+        <v>1.029</v>
       </c>
       <c r="S18">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>0.7104072398190046</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1610.8</v>
+        <v>53.9</v>
       </c>
       <c r="V18">
-        <v>2.555608440425194</v>
+        <v>1.371501272264631</v>
       </c>
       <c r="W18">
-        <v>0.01451112989574528</v>
+        <v>0.01965897693079238</v>
       </c>
       <c r="X18">
-        <v>0.1187996134374348</v>
+        <v>0.03551951480254913</v>
       </c>
       <c r="Y18">
-        <v>-0.1042884835416895</v>
+        <v>-0.01586053787175675</v>
       </c>
       <c r="Z18">
-        <v>0.2751846415416496</v>
+        <v>0.9572446555819476</v>
       </c>
       <c r="AA18">
-        <v>0.001176596540016035</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0.04552324176621896</v>
+        <v>0.03210320062041607</v>
       </c>
       <c r="AC18">
-        <v>-0.04434664522620292</v>
+        <v>-0.03210320062041607</v>
       </c>
       <c r="AD18">
-        <v>2581.8</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AE18">
-        <v>25.6165115024044</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>2607.416511502405</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="AG18">
-        <v>996.6165115024048</v>
+        <v>-44.62</v>
       </c>
       <c r="AH18">
-        <v>0.8053257603743942</v>
+        <v>0.1910251132153149</v>
       </c>
       <c r="AI18">
-        <v>0.7850551136792844</v>
+        <v>0.08578295433536696</v>
       </c>
       <c r="AJ18">
-        <v>0.6125799968567912</v>
+        <v>8.387218045112782</v>
       </c>
       <c r="AK18">
-        <v>0.5826406847292241</v>
+        <v>-0.8220338983050846</v>
       </c>
       <c r="AL18">
         <v>0</v>
       </c>
       <c r="AM18">
-        <v>-0.102</v>
-      </c>
-      <c r="AN18">
-        <v>284.3392070484581</v>
-      </c>
-      <c r="AP18">
-        <v>109.7595276985027</v>
-      </c>
-      <c r="AQ18">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2734,7 +2758,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Okasan Securities Group Inc. (TSE:8609)</t>
+          <t>Kyokuto Securities Co., Ltd. (TSE:8706)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2743,10 +2767,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.0766</v>
+        <v>-0.132</v>
       </c>
       <c r="E19">
-        <v>0.06370000000000001</v>
+        <v>-0.312</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2755,34 +2779,34 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.006224759373722273</v>
+        <v>0.001739912782131725</v>
       </c>
       <c r="J19">
-        <v>0.003112379686861137</v>
+        <v>0.001227976905850659</v>
       </c>
       <c r="K19">
-        <v>-8.460000000000001</v>
+        <v>7.33</v>
       </c>
       <c r="L19">
-        <v>-0.01484992101105845</v>
+        <v>0.1398854961832061</v>
       </c>
       <c r="M19">
-        <v>27.5776</v>
+        <v>15.1206</v>
       </c>
       <c r="N19">
-        <v>0.03850006980315511</v>
+        <v>0.07078932584269662</v>
       </c>
       <c r="O19">
-        <v>-3.259763593380615</v>
+        <v>2.062837653478854</v>
       </c>
       <c r="P19">
-        <v>27.5776</v>
+        <v>15.1206</v>
       </c>
       <c r="Q19">
-        <v>0.03850006980315511</v>
+        <v>0.07078932584269662</v>
       </c>
       <c r="R19">
-        <v>-3.259763593380615</v>
+        <v>2.062837653478854</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2791,67 +2815,67 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>594.1</v>
+        <v>210.3</v>
       </c>
       <c r="V19">
-        <v>0.8294010889292197</v>
+        <v>0.9845505617977529</v>
       </c>
       <c r="W19">
-        <v>-0.006196894227951949</v>
+        <v>0.01754847977016998</v>
       </c>
       <c r="X19">
-        <v>0.07877113656658025</v>
+        <v>0.03944074450282323</v>
       </c>
       <c r="Y19">
-        <v>-0.08496803079453219</v>
+        <v>-0.02189226473265325</v>
       </c>
       <c r="Z19">
-        <v>0.3413689615642179</v>
+        <v>0.1359541195639269</v>
       </c>
       <c r="AA19">
-        <v>0.001062469821697352</v>
+        <v>0.0001669485190797616</v>
       </c>
       <c r="AB19">
-        <v>0.04541324862908182</v>
+        <v>0.03229934216533273</v>
       </c>
       <c r="AC19">
-        <v>-0.04435077880738447</v>
+        <v>-0.03213239364625297</v>
       </c>
       <c r="AD19">
-        <v>1294.6</v>
+        <v>102.9</v>
       </c>
       <c r="AE19">
-        <v>62.76877292395211</v>
+        <v>1.124142851081488</v>
       </c>
       <c r="AF19">
-        <v>1357.368772923952</v>
+        <v>104.0241428510815</v>
       </c>
       <c r="AG19">
-        <v>763.268772923952</v>
+        <v>-106.2758571489185</v>
       </c>
       <c r="AH19">
-        <v>0.6545735705948884</v>
+        <v>0.3275070399791786</v>
       </c>
       <c r="AI19">
-        <v>0.4681762469214011</v>
+        <v>0.1990800698384729</v>
       </c>
       <c r="AJ19">
-        <v>0.5158724534416644</v>
+        <v>-0.9902325266774549</v>
       </c>
       <c r="AK19">
-        <v>0.3311118829515449</v>
+        <v>-0.3403832137337563</v>
       </c>
       <c r="AL19">
         <v>0</v>
       </c>
       <c r="AM19">
-        <v>-9.449999999999999</v>
+        <v>-3.12</v>
       </c>
       <c r="AN19">
-        <v>80.40993788819874</v>
+        <v>325.6329113924051</v>
       </c>
       <c r="AP19">
-        <v>47.40799831825789</v>
+        <v>-336.3160036358181</v>
       </c>
       <c r="AQ19">
         <v>-0</v>
@@ -2865,7 +2889,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Marusan Securities Co., Ltd. (TSE:8613)</t>
+          <t>Tokai Tokyo Financial Holdings, Inc. (TSE:8616)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2874,10 +2898,10 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.0518</v>
+        <v>-0.0447</v>
       </c>
       <c r="E20">
-        <v>-0.485</v>
+        <v>-0.23</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2886,94 +2910,106 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01249399998336876</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.008994229305879399</v>
       </c>
       <c r="K20">
-        <v>1.68</v>
+        <v>45.7</v>
       </c>
       <c r="L20">
-        <v>0.01200857755539671</v>
+        <v>0.07652377762893503</v>
       </c>
       <c r="M20">
-        <v>-0</v>
+        <v>33.03720000000001</v>
       </c>
       <c r="N20">
-        <v>-0</v>
+        <v>0.04500980926430519</v>
       </c>
       <c r="O20">
-        <v>-0</v>
+        <v>0.7229146608315099</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>33.03720000000001</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.04500980926430519</v>
       </c>
       <c r="R20">
-        <v>-0</v>
+        <v>0.7229146608315099</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
       <c r="U20">
-        <v>245.3</v>
+        <v>637.5</v>
       </c>
       <c r="V20">
-        <v>0.8226022803487593</v>
+        <v>0.8685286103542235</v>
       </c>
       <c r="W20">
-        <v>0.004280254777070064</v>
+        <v>0.03139598790876615</v>
       </c>
       <c r="X20">
-        <v>0.0464565350630662</v>
+        <v>0.1526787244897142</v>
       </c>
       <c r="Y20">
-        <v>-0.04217628028599613</v>
+        <v>-0.1212827365809481</v>
       </c>
       <c r="Z20">
-        <v>0.9634986225895318</v>
+        <v>0.1063391654738902</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>0.000956438838468022</v>
       </c>
       <c r="AB20">
-        <v>0.04466617655361596</v>
+        <v>0.03310121199600149</v>
       </c>
       <c r="AC20">
-        <v>-0.04466617655361596</v>
+        <v>-0.03214477315753347</v>
       </c>
       <c r="AD20">
-        <v>25.4</v>
+        <v>5635.9</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>39.19291604966087</v>
       </c>
       <c r="AF20">
-        <v>25.4</v>
+        <v>5675.092916049661</v>
       </c>
       <c r="AG20">
-        <v>-219.9</v>
+        <v>5037.592916049661</v>
       </c>
       <c r="AH20">
-        <v>0.0784919653893696</v>
+        <v>0.8854752131675426</v>
       </c>
       <c r="AI20">
-        <v>0.06147144240077444</v>
+        <v>0.7851221556681408</v>
       </c>
       <c r="AJ20">
-        <v>-2.808429118773947</v>
+        <v>0.8728254035451997</v>
       </c>
       <c r="AK20">
-        <v>-1.309708159618821</v>
+        <v>0.7643379150606138</v>
       </c>
       <c r="AL20">
         <v>0</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>-5.65</v>
+      </c>
+      <c r="AN20">
+        <v>368.3594771241829</v>
+      </c>
+      <c r="AP20">
+        <v>329.2544389574941</v>
+      </c>
+      <c r="AQ20">
+        <v>-0</v>
       </c>
     </row>
     <row r="21">
@@ -2984,7 +3020,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ichiyoshi Securities Co., Ltd. (TSE:8624)</t>
+          <t>IwaiCosmo Holdings, Inc. (TSE:8707)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2993,10 +3029,10 @@
         </is>
       </c>
       <c r="D21">
-        <v>-0.0274</v>
+        <v>-0.00167</v>
       </c>
       <c r="E21">
-        <v>-0.267</v>
+        <v>-0.0482</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3011,94 +3047,91 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>-1.13</v>
+        <v>36</v>
       </c>
       <c r="L21">
-        <v>-0.00643507972665148</v>
+        <v>0.1847101077475629</v>
       </c>
       <c r="M21">
-        <v>24.1965</v>
+        <v>16.7085</v>
       </c>
       <c r="N21">
-        <v>0.09904420794105608</v>
+        <v>0.05599363270777481</v>
       </c>
       <c r="O21">
-        <v>-21.41283185840708</v>
+        <v>0.464125</v>
       </c>
       <c r="P21">
-        <v>12.5965</v>
+        <v>16.7085</v>
       </c>
       <c r="Q21">
-        <v>0.05156160458452722</v>
+        <v>0.05599363270777481</v>
       </c>
       <c r="R21">
-        <v>-11.14734513274336</v>
+        <v>0.464125</v>
       </c>
       <c r="S21">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0.4794081788688447</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>201.7</v>
+        <v>104.3</v>
       </c>
       <c r="V21">
-        <v>0.8256242325010232</v>
+        <v>0.3495308310991957</v>
       </c>
       <c r="W21">
-        <v>-0.003532353860581431</v>
+        <v>0.07839721254355402</v>
       </c>
       <c r="X21">
-        <v>0.04522654311047987</v>
+        <v>0.03827149690796468</v>
       </c>
       <c r="Y21">
-        <v>-0.0487588969710613</v>
+        <v>0.04012571563558934</v>
       </c>
       <c r="Z21">
-        <v>0.960087479496993</v>
+        <v>0.3928643418665592</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0.04488061818512122</v>
+        <v>0.03224814769652241</v>
       </c>
       <c r="AC21">
-        <v>-0.04488061818512122</v>
+        <v>-0.03224814769652241</v>
       </c>
       <c r="AD21">
-        <v>3.98</v>
+        <v>123</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>3.98</v>
+        <v>123</v>
       </c>
       <c r="AG21">
-        <v>-197.72</v>
+        <v>18.7</v>
       </c>
       <c r="AH21">
-        <v>0.01603028838408249</v>
+        <v>0.2918841955386806</v>
       </c>
       <c r="AI21">
-        <v>0.01282299117211161</v>
+        <v>0.1918876755070203</v>
       </c>
       <c r="AJ21">
-        <v>-4.244740231859166</v>
+        <v>0.05897193314411859</v>
       </c>
       <c r="AK21">
-        <v>-1.819285977180714</v>
+        <v>0.03484255636295883</v>
       </c>
       <c r="AL21">
         <v>0</v>
       </c>
       <c r="AM21">
-        <v>-0.176</v>
-      </c>
-      <c r="AQ21">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3109,7 +3142,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The Kosei Securities Co., Ltd. (TSE:8617)</t>
+          <t>Matsui Securities Co., Ltd. (TSE:8628)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3118,7 +3151,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>-0.153</v>
+        <v>-0.0609</v>
+      </c>
+      <c r="E22">
+        <v>-0.13</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3133,10 +3169,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>-3.39</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="L22">
-        <v>-0.8329238329238329</v>
+        <v>0.3401139137510171</v>
       </c>
       <c r="M22">
         <v>-0</v>
@@ -3145,7 +3181,7 @@
         <v>-0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P22">
         <v>-0</v>
@@ -3154,67 +3190,70 @@
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="U22">
-        <v>62.5</v>
+        <v>575.3</v>
       </c>
       <c r="V22">
-        <v>1.166044776119403</v>
+        <v>0.2852821580878707</v>
       </c>
       <c r="W22">
-        <v>-0.02312414733969987</v>
+        <v>0.1096249672174141</v>
       </c>
       <c r="X22">
-        <v>0.04493565290976192</v>
+        <v>0.04472533754865601</v>
       </c>
       <c r="Y22">
-        <v>-0.06805980024946179</v>
+        <v>0.06489962966875809</v>
       </c>
       <c r="Z22">
-        <v>0.04204545454545455</v>
+        <v>0.1810148022682083</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0.04493565290976192</v>
+        <v>0.03247837667785775</v>
       </c>
       <c r="AC22">
-        <v>-0.04493565290976192</v>
+        <v>-0.03247837667785775</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1663.9</v>
       </c>
       <c r="AE22">
         <v>0</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>1663.9</v>
       </c>
       <c r="AG22">
-        <v>-62.5</v>
+        <v>1088.6</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>0.4520853144953131</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>0.68764722899533</v>
       </c>
       <c r="AJ22">
-        <v>7.022471910112361</v>
+        <v>0.350573231997939</v>
       </c>
       <c r="AK22">
-        <v>-0.7167431192660552</v>
+        <v>0.5902190414226849</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>-0.929</v>
+      </c>
+      <c r="AQ22">
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
@@ -3225,7 +3264,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Maruhachi Securities Co., Ltd. (JASDAQ:8700)</t>
+          <t>Sawada Holdings Co., Ltd. (JASDAQ:8699)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3234,10 +3273,10 @@
         </is>
       </c>
       <c r="D23">
-        <v>-0.0537</v>
+        <v>0.0276</v>
       </c>
       <c r="E23">
-        <v>-0.217</v>
+        <v>-0.111</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -3246,97 +3285,103 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.065462146928765e-05</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.080427983208402e-06</v>
       </c>
       <c r="K23">
-        <v>2.39</v>
+        <v>40.9</v>
       </c>
       <c r="L23">
-        <v>0.09676113360323887</v>
+        <v>0.07574074074074073</v>
       </c>
       <c r="M23">
-        <v>-0</v>
+        <v>3.762</v>
       </c>
       <c r="N23">
-        <v>-0</v>
+        <v>0.01041816671282193</v>
       </c>
       <c r="O23">
-        <v>-0</v>
+        <v>0.09198044009779952</v>
       </c>
       <c r="P23">
-        <v>-0</v>
+        <v>3.762</v>
       </c>
       <c r="Q23">
-        <v>-0</v>
+        <v>0.01041816671282193</v>
       </c>
       <c r="R23">
-        <v>-0</v>
+        <v>0.09198044009779952</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
       <c r="U23">
-        <v>25.4</v>
+        <v>1087.1</v>
       </c>
       <c r="V23">
-        <v>0.695890410958904</v>
+        <v>3.010523400720022</v>
       </c>
       <c r="W23">
-        <v>0.03898858075040783</v>
+        <v>0.07803854226292692</v>
       </c>
       <c r="X23">
-        <v>0.04493565290976192</v>
+        <v>0.0518965338594219</v>
       </c>
       <c r="Y23">
-        <v>-0.005947072159354083</v>
+        <v>0.02614200840350502</v>
       </c>
       <c r="Z23">
-        <v>1.21078431372549</v>
+        <v>1.904565519387976</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1.538970451871644e-05</v>
       </c>
       <c r="AB23">
-        <v>0.04493565290976192</v>
+        <v>0.03263655684279917</v>
       </c>
       <c r="AC23">
-        <v>-0.04493565290976192</v>
+        <v>-0.03262116713828045</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>463.6</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>0.01623252203292334</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>463.6162325220329</v>
       </c>
       <c r="AG23">
-        <v>-25.4</v>
+        <v>-623.4837674779669</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>0.562152427998496</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>0.3784263241436523</v>
       </c>
       <c r="AJ23">
-        <v>-2.288288288288288</v>
+        <v>2.376228428575798</v>
       </c>
       <c r="AK23">
-        <v>-0.6666666666666666</v>
+        <v>-4.517466939103944</v>
       </c>
       <c r="AL23">
         <v>0</v>
       </c>
       <c r="AM23">
-        <v>-0.139</v>
-      </c>
-      <c r="AQ23">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>51511.11111111112</v>
+      </c>
+      <c r="AP23">
+        <v>-69275.97416421855</v>
       </c>
     </row>
     <row r="24">
@@ -3347,7 +3392,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Imamura Securities Co., Ltd. (JASDAQ:7175)</t>
+          <t>GMO Financial Holdings, Inc. (JASDAQ:7177)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3368,82 +3413,85 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.03</v>
+        <v>72.5</v>
       </c>
       <c r="L24">
-        <v>0.03931297709923665</v>
+        <v>0.2269881026925485</v>
       </c>
       <c r="M24">
-        <v>-0</v>
+        <v>64.13760000000001</v>
       </c>
       <c r="N24">
-        <v>-0</v>
+        <v>0.07874475138121548</v>
       </c>
       <c r="O24">
-        <v>-0</v>
+        <v>0.884656551724138</v>
       </c>
       <c r="P24">
-        <v>-0</v>
+        <v>64.13760000000001</v>
       </c>
       <c r="Q24">
-        <v>-0</v>
+        <v>0.07874475138121548</v>
       </c>
       <c r="R24">
-        <v>-0</v>
+        <v>0.884656551724138</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
       <c r="U24">
-        <v>49.5</v>
+        <v>566.1</v>
       </c>
       <c r="V24">
-        <v>2.088607594936709</v>
+        <v>0.6950276243093922</v>
       </c>
       <c r="W24">
-        <v>0.01395663956639566</v>
+        <v>0.2174565086982604</v>
       </c>
       <c r="X24">
-        <v>0.04493565290976192</v>
+        <v>0.05299159367884754</v>
       </c>
       <c r="Y24">
-        <v>-0.03097901334336625</v>
+        <v>0.1644649150194128</v>
       </c>
       <c r="Z24">
-        <v>1.224299065420561</v>
+        <v>0.4176255230125522</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0.04493565290976192</v>
+        <v>0.03265528462422822</v>
       </c>
       <c r="AC24">
-        <v>-0.04493565290976192</v>
+        <v>-0.03265528462422822</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>1102.8</v>
       </c>
       <c r="AE24">
         <v>0</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1102.8</v>
       </c>
       <c r="AG24">
-        <v>-49.5</v>
+        <v>536.6999999999999</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>0.575183852292286</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>0.7465980637736105</v>
       </c>
       <c r="AJ24">
-        <v>1.918604651162791</v>
+        <v>0.397202486678508</v>
       </c>
       <c r="AK24">
-        <v>-1.774193548387096</v>
+        <v>0.5891328210757408</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3460,7 +3508,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Invast Securities Co., Ltd. (JASDAQ:8709)</t>
+          <t>Toyo Securities Co., Ltd. (TSE:8614)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3469,10 +3517,10 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.08160000000000001</v>
+        <v>-0.08109999999999999</v>
       </c>
       <c r="E25">
-        <v>-0.391</v>
+        <v>-0.387</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3487,28 +3535,28 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.86</v>
+        <v>2.89</v>
       </c>
       <c r="L25">
-        <v>0.07044334975369458</v>
+        <v>0.02939979654120041</v>
       </c>
       <c r="M25">
-        <v>1.03488</v>
+        <v>1.4991</v>
       </c>
       <c r="N25">
-        <v>0.02440754716981132</v>
+        <v>0.01475492125984252</v>
       </c>
       <c r="O25">
-        <v>0.3618461538461539</v>
+        <v>0.518719723183391</v>
       </c>
       <c r="P25">
-        <v>1.03488</v>
+        <v>1.4991</v>
       </c>
       <c r="Q25">
-        <v>0.02440754716981132</v>
+        <v>0.01475492125984252</v>
       </c>
       <c r="R25">
-        <v>0.3618461538461539</v>
+        <v>0.518719723183391</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3517,61 +3565,64 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>54.6</v>
+        <v>327.9</v>
       </c>
       <c r="V25">
-        <v>1.287735849056604</v>
+        <v>3.227362204724409</v>
       </c>
       <c r="W25">
-        <v>0.03062098501070663</v>
+        <v>0.00859863135971437</v>
       </c>
       <c r="X25">
-        <v>0.04493565290976192</v>
+        <v>0.0536743028802564</v>
       </c>
       <c r="Y25">
-        <v>-0.01431466789905528</v>
+        <v>-0.04507567152054203</v>
       </c>
       <c r="Z25">
-        <v>0.9376443418013857</v>
+        <v>0.533659066232356</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0.04493565290976192</v>
+        <v>0.03266640649187817</v>
       </c>
       <c r="AC25">
-        <v>-0.04493565290976192</v>
+        <v>-0.03266640649187817</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AG25">
-        <v>-54.6</v>
+        <v>-185.9</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>0.5829228243021347</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>0.2880324543610548</v>
       </c>
       <c r="AJ25">
-        <v>4.475409836065573</v>
+        <v>2.205219454329775</v>
       </c>
       <c r="AK25">
-        <v>-1.238095238095238</v>
+        <v>-1.125984251968504</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>-2.63</v>
+      </c>
+      <c r="AQ25">
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
@@ -3582,7 +3633,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Nomura Holdings, Inc. (TSE:8604)</t>
+          <t>Traders Holdings Co.,Ltd. (JASDAQ:8704)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3591,115 +3642,106 @@
         </is>
       </c>
       <c r="D26">
-        <v>-0.0358</v>
+        <v>0.172</v>
       </c>
       <c r="E26">
-        <v>-0.113</v>
+        <v>1.434</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.02104347826086956</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-0.001133416361321665</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-0.0007861286593439834</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>924.9</v>
+        <v>17</v>
       </c>
       <c r="L26">
-        <v>0.07870618569860356</v>
+        <v>0.2956521739130435</v>
       </c>
       <c r="M26">
-        <v>954.7</v>
+        <v>-0</v>
       </c>
       <c r="N26">
-        <v>0.05883585492866607</v>
+        <v>-0</v>
       </c>
       <c r="O26">
-        <v>1.032219699426965</v>
+        <v>-0</v>
       </c>
       <c r="P26">
-        <v>185.8</v>
+        <v>-0</v>
       </c>
       <c r="Q26">
-        <v>0.01145040520136813</v>
+        <v>-0</v>
       </c>
       <c r="R26">
-        <v>0.2008865823332252</v>
+        <v>-0</v>
       </c>
       <c r="S26">
-        <v>768.9000000000001</v>
-      </c>
-      <c r="T26">
-        <v>0.8053838902272966</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>26127.3</v>
+        <v>34.7</v>
       </c>
       <c r="V26">
-        <v>1.610162388685175</v>
+        <v>0.3825799338478501</v>
       </c>
       <c r="W26">
-        <v>0.03747614436156031</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="X26">
-        <v>0.3559151016402417</v>
+        <v>0.03498232539198579</v>
       </c>
       <c r="Y26">
-        <v>-0.3184389572786814</v>
+        <v>0.3796518209494776</v>
       </c>
       <c r="Z26">
-        <v>0.04594199283749966</v>
+        <v>1.615168539325843</v>
       </c>
       <c r="AA26">
-        <v>-3.61163172369345e-05</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0.04490392349189917</v>
+        <v>0.03283873376756381</v>
       </c>
       <c r="AC26">
-        <v>-0.0449400398091361</v>
+        <v>-0.03283873376756381</v>
       </c>
       <c r="AD26">
-        <v>281811.6</v>
+        <v>18.3</v>
       </c>
       <c r="AE26">
-        <v>798.0955784339965</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>282609.695578434</v>
+        <v>18.3</v>
       </c>
       <c r="AG26">
-        <v>256482.395578434</v>
+        <v>-16.4</v>
       </c>
       <c r="AH26">
-        <v>0.9457010220311779</v>
+        <v>0.1678899082568807</v>
       </c>
       <c r="AI26">
-        <v>0.9163622756722281</v>
+        <v>0.2361290322580645</v>
       </c>
       <c r="AJ26">
-        <v>0.9404988239727843</v>
+        <v>-0.2207267833109018</v>
       </c>
       <c r="AK26">
-        <v>0.9086208335935779</v>
+        <v>-0.383177570093458</v>
       </c>
       <c r="AL26">
         <v>0</v>
       </c>
       <c r="AM26">
         <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>1926.258373205741</v>
-      </c>
-      <c r="AP26">
-        <v>1753.126422272276</v>
       </c>
     </row>
     <row r="27">
@@ -3710,7 +3752,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Daiwa Securities Group Inc. (TSE:8601)</t>
+          <t>Monex Group, Inc. (TSE:8698)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3719,13 +3761,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>0.0301</v>
+        <v>0.0134</v>
       </c>
       <c r="E27">
-        <v>-0.163</v>
-      </c>
-      <c r="F27">
-        <v>0.0527</v>
+        <v>-0.104</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3734,103 +3773,97 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>-0.001272396006063816</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>-0.0009155341429365645</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>563.5</v>
+        <v>40.3</v>
       </c>
       <c r="L27">
-        <v>0.08534387447559331</v>
+        <v>0.07708492731446059</v>
       </c>
       <c r="M27">
-        <v>603.346</v>
+        <v>14.336</v>
       </c>
       <c r="N27">
-        <v>0.07753894000925307</v>
+        <v>0.01497388761228327</v>
       </c>
       <c r="O27">
-        <v>1.070711623779947</v>
+        <v>0.3557320099255584</v>
       </c>
       <c r="P27">
-        <v>283.346</v>
+        <v>14.336</v>
       </c>
       <c r="Q27">
-        <v>0.03641417776178481</v>
+        <v>0.01497388761228327</v>
       </c>
       <c r="R27">
-        <v>0.502832298136646</v>
+        <v>0.3557320099255584</v>
       </c>
       <c r="S27">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>0.5303756053740308</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>40519.7</v>
+        <v>1457.4</v>
       </c>
       <c r="V27">
-        <v>5.207384465121061</v>
+        <v>1.522247754334656</v>
       </c>
       <c r="W27">
-        <v>0.04927465262900165</v>
+        <v>0.05725245063219207</v>
       </c>
       <c r="X27">
-        <v>0.2696134661249703</v>
+        <v>0.07682931873139907</v>
       </c>
       <c r="Y27">
-        <v>-0.2203388134959687</v>
+        <v>-0.019576868099207</v>
       </c>
       <c r="Z27">
-        <v>0.0978284936275625</v>
+        <v>0.3121380380918263</v>
       </c>
       <c r="AA27">
-        <v>-8.956532606808559e-05</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.04490457174964368</v>
+        <v>0.03289531447768559</v>
       </c>
       <c r="AC27">
-        <v>-0.04499413707571177</v>
+        <v>-0.03289531447768559</v>
       </c>
       <c r="AD27">
-        <v>97296.8</v>
+        <v>2756.4</v>
       </c>
       <c r="AE27">
-        <v>615.5062455461878</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>97912.30624554619</v>
+        <v>2756.4</v>
       </c>
       <c r="AG27">
-        <v>57392.60624554619</v>
+        <v>1299</v>
       </c>
       <c r="AH27">
-        <v>0.9263795830377433</v>
+        <v>0.7422047498519037</v>
       </c>
       <c r="AI27">
-        <v>0.891685243474939</v>
+        <v>0.7869582595785987</v>
       </c>
       <c r="AJ27">
-        <v>0.8806084768060981</v>
+        <v>0.5756957986172664</v>
       </c>
       <c r="AK27">
-        <v>0.8283410126706925</v>
+        <v>0.6351457070213182</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>-44.9</v>
-      </c>
-      <c r="AN27">
-        <v>848.2720139494334</v>
-      </c>
-      <c r="AP27">
-        <v>500.37145811287</v>
+        <v>-0.256</v>
       </c>
       <c r="AQ27">
         <v>-0</v>
@@ -3844,7 +3877,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aizawa Securities Co., Ltd. (TSE:8708)</t>
+          <t>Nomura Holdings, Inc. (TSE:8604)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3853,10 +3886,10 @@
         </is>
       </c>
       <c r="D28">
-        <v>-0.0222</v>
+        <v>-0.0274</v>
       </c>
       <c r="E28">
-        <v>-0.21</v>
+        <v>-0.0273</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3865,100 +3898,103 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>0.00226465617184952</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>0.001716998748300317</v>
       </c>
       <c r="K28">
-        <v>8.07</v>
+        <v>2206.7</v>
       </c>
       <c r="L28">
-        <v>0.06927038626609443</v>
+        <v>0.1662234944069903</v>
       </c>
       <c r="M28">
-        <v>17.1707</v>
+        <v>1634.3</v>
       </c>
       <c r="N28">
-        <v>0.06132392857142857</v>
+        <v>0.1106215056383598</v>
       </c>
       <c r="O28">
-        <v>2.127719950433705</v>
+        <v>0.7406081479131735</v>
       </c>
       <c r="P28">
-        <v>10.2907</v>
+        <v>603.8</v>
       </c>
       <c r="Q28">
-        <v>0.0367525</v>
+        <v>0.0408696476194344</v>
       </c>
       <c r="R28">
-        <v>1.275179677819083</v>
+        <v>0.2736212443920787</v>
       </c>
       <c r="S28">
-        <v>6.879999999999999</v>
+        <v>1030.5</v>
       </c>
       <c r="T28">
-        <v>0.4006825580785873</v>
+        <v>0.630545187542067</v>
       </c>
       <c r="U28">
-        <v>166.6</v>
+        <v>37373</v>
       </c>
       <c r="V28">
-        <v>0.595</v>
+        <v>2.529680921631537</v>
       </c>
       <c r="W28">
-        <v>0.01627344222625529</v>
+        <v>0.08808689334727798</v>
       </c>
       <c r="X28">
-        <v>0.04784353168507961</v>
+        <v>0.3108754776258592</v>
       </c>
       <c r="Y28">
-        <v>-0.03157008945882431</v>
+        <v>-0.2227885842785812</v>
       </c>
       <c r="Z28">
-        <v>0.3098404255319149</v>
+        <v>0.04729438602321775</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>8.120440160349688e-05</v>
       </c>
       <c r="AB28">
-        <v>0.04503783679372337</v>
+        <v>0.0365402655484023</v>
       </c>
       <c r="AC28">
-        <v>-0.04503783679372337</v>
+        <v>-0.0364590611467988</v>
       </c>
       <c r="AD28">
-        <v>45.6</v>
+        <v>261987</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1767.177784953059</v>
       </c>
       <c r="AF28">
-        <v>45.6</v>
+        <v>263754.177784953</v>
       </c>
       <c r="AG28">
-        <v>-121</v>
+        <v>226381.177784953</v>
       </c>
       <c r="AH28">
-        <v>0.14004914004914</v>
+        <v>0.946957572745505</v>
       </c>
       <c r="AI28">
-        <v>0.08550534408400526</v>
+        <v>0.9089665859816612</v>
       </c>
       <c r="AJ28">
-        <v>-0.7610062893081762</v>
+        <v>0.9387373209721827</v>
       </c>
       <c r="AK28">
-        <v>-0.3299700027270248</v>
+        <v>0.8955083507104855</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>-4.97</v>
-      </c>
-      <c r="AQ28">
-        <v>-0</v>
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>683.1473272490222</v>
+      </c>
+      <c r="AP28">
+        <v>590.3029407691083</v>
       </c>
     </row>
     <row r="29">
@@ -3969,7 +4005,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Toyo Securities Co., Ltd. (TSE:8614)</t>
+          <t>Daiwa Securities Group Inc. (TSE:8601)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3978,7 +4014,13 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.09029999999999999</v>
+        <v>-0.0354</v>
+      </c>
+      <c r="E29">
+        <v>-0.164</v>
+      </c>
+      <c r="F29">
+        <v>0.0931</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -3987,97 +4029,103 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>0.0007109245970392682</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>0.0004808125763879209</v>
       </c>
       <c r="K29">
-        <v>-23.8</v>
+        <v>566.7</v>
       </c>
       <c r="L29">
-        <v>-0.2920245398773006</v>
+        <v>0.1016210594268909</v>
       </c>
       <c r="M29">
-        <v>5.89</v>
+        <v>449.589</v>
       </c>
       <c r="N29">
-        <v>0.05453703703703704</v>
+        <v>0.06482057123084244</v>
       </c>
       <c r="O29">
-        <v>-0.2474789915966386</v>
+        <v>0.7933456855479089</v>
       </c>
       <c r="P29">
-        <v>-0</v>
+        <v>289.389</v>
       </c>
       <c r="Q29">
-        <v>-0</v>
+        <v>0.04172335241280872</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.5106564319745897</v>
       </c>
       <c r="S29">
-        <v>5.89</v>
+        <v>160.2</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>0.3563254439054336</v>
       </c>
       <c r="U29">
-        <v>216</v>
+        <v>39824.1</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>5.741735030781874</v>
       </c>
       <c r="W29">
-        <v>-0.06418554476806904</v>
+        <v>0.04908703485551937</v>
       </c>
       <c r="X29">
-        <v>0.05553316108459173</v>
+        <v>0.3245511784304299</v>
       </c>
       <c r="Y29">
-        <v>-0.1197187058526608</v>
+        <v>-0.2754641435749105</v>
       </c>
       <c r="Z29">
-        <v>0.4008853910477127</v>
+        <v>0.08115139071708265</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>3.901860924814332e-05</v>
       </c>
       <c r="AB29">
-        <v>0.04520740889552144</v>
+        <v>0.03655197029683254</v>
       </c>
       <c r="AC29">
-        <v>-0.04520740889552144</v>
+        <v>-0.03651295168758439</v>
       </c>
       <c r="AD29">
-        <v>64.09999999999999</v>
+        <v>129366.3</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>527.6772894607541</v>
       </c>
       <c r="AF29">
-        <v>64.09999999999999</v>
+        <v>129893.9772894608</v>
       </c>
       <c r="AG29">
-        <v>-151.9</v>
+        <v>90069.87728946077</v>
       </c>
       <c r="AH29">
-        <v>0.3724578733294596</v>
+        <v>0.9493100473566365</v>
       </c>
       <c r="AI29">
-        <v>0.1601699150424787</v>
+        <v>0.9142204664773897</v>
       </c>
       <c r="AJ29">
-        <v>3.460136674259681</v>
+        <v>0.9285001347981204</v>
       </c>
       <c r="AK29">
-        <v>-0.8246471226927252</v>
+        <v>0.8808137223366808</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
-        <v>-2.88</v>
+        <v>-36.7</v>
+      </c>
+      <c r="AN29">
+        <v>1181.427397260274</v>
+      </c>
+      <c r="AP29">
+        <v>822.5559569813769</v>
       </c>
       <c r="AQ29">
         <v>-0</v>
@@ -4091,7 +4139,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Traders Holdings Co.,Ltd. (JASDAQ:8704)</t>
+          <t>Kobayashi Yoko Co., Ltd. (TSE:8742)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4100,106 +4148,118 @@
         </is>
       </c>
       <c r="D30">
-        <v>0.271</v>
+        <v>0.00412</v>
       </c>
       <c r="G30">
-        <v>0.03447653429602888</v>
+        <v>-0.05014925373134328</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>-0.05014925373134328</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-0.04477611940298507</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>-0.04477611940298507</v>
       </c>
       <c r="K30">
-        <v>16.6</v>
+        <v>-1.16</v>
       </c>
       <c r="L30">
-        <v>0.2996389891696751</v>
+        <v>-0.03462686567164179</v>
       </c>
       <c r="M30">
-        <v>0.111</v>
+        <v>0.22656</v>
       </c>
       <c r="N30">
-        <v>0.0008203991130820398</v>
+        <v>0.009247346938775509</v>
       </c>
       <c r="O30">
-        <v>0.006686746987951807</v>
+        <v>-0.1953103448275862</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>0.22656</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.009247346938775509</v>
       </c>
       <c r="R30">
-        <v>-0</v>
+        <v>-0.1953103448275862</v>
       </c>
       <c r="S30">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>23.9</v>
+        <v>30.7</v>
       </c>
       <c r="V30">
-        <v>0.1766444937176644</v>
+        <v>1.253061224489796</v>
       </c>
       <c r="W30">
-        <v>3.367139959432049</v>
+        <v>-0.01582537517053206</v>
       </c>
       <c r="X30">
-        <v>0.04737707808191763</v>
+        <v>0.03285581388188875</v>
       </c>
       <c r="Y30">
-        <v>3.319762881350131</v>
+        <v>-0.0486811890524208</v>
       </c>
       <c r="Z30">
-        <v>3.032459357381357</v>
+        <v>0.666534023079984</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>-0.02984480700358137</v>
       </c>
       <c r="AB30">
-        <v>0.04534054414858744</v>
+        <v>0.0319172899832342</v>
       </c>
       <c r="AC30">
-        <v>-0.04534054414858744</v>
+        <v>-0.06176209698681557</v>
       </c>
       <c r="AD30">
-        <v>18.5</v>
+        <v>1.61</v>
       </c>
       <c r="AE30">
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>18.5</v>
+        <v>1.61</v>
       </c>
       <c r="AG30">
-        <v>-5.399999999999999</v>
+        <v>-29.09</v>
       </c>
       <c r="AH30">
-        <v>0.1202860858257477</v>
+        <v>0.06166219839142092</v>
       </c>
       <c r="AI30">
-        <v>0.3109243697478992</v>
+        <v>0.01944209636517329</v>
       </c>
       <c r="AJ30">
-        <v>-0.0415704387990762</v>
+        <v>6.337690631808279</v>
       </c>
       <c r="AK30">
-        <v>-0.1516853932584269</v>
+        <v>-0.5582421800038381</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>-0.342</v>
+      </c>
+      <c r="AN30">
+        <v>-1.424778761061947</v>
+      </c>
+      <c r="AO30">
+        <v>-166.6666666666667</v>
+      </c>
+      <c r="AP30">
+        <v>25.74336283185841</v>
+      </c>
+      <c r="AQ30">
+        <v>4.385964912280702</v>
       </c>
     </row>
     <row r="31">
@@ -4210,7 +4270,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GMO Financial Holdings, Inc. (JASDAQ:7177)</t>
+          <t>Okato Nissan Securities Holdings,Inc. (JASDAQ:8705)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4218,104 +4278,116 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D31">
+        <v>-0.0415</v>
+      </c>
       <c r="G31">
-        <v>0</v>
+        <v>-0.06620209059233449</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>-0.06620209059233449</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>-0.01916376306620209</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>-0.01916376306620209</v>
       </c>
       <c r="K31">
-        <v>56.7</v>
+        <v>-0.474</v>
       </c>
       <c r="L31">
-        <v>0.1931856899488927</v>
+        <v>-0.01651567944250871</v>
       </c>
       <c r="M31">
-        <v>28.8365</v>
+        <v>-0</v>
       </c>
       <c r="N31">
-        <v>0.0450359206621896</v>
+        <v>-0</v>
       </c>
       <c r="O31">
-        <v>0.5085802469135803</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>28.8365</v>
+        <v>-0</v>
       </c>
       <c r="Q31">
-        <v>0.0450359206621896</v>
+        <v>-0</v>
       </c>
       <c r="R31">
-        <v>0.5085802469135803</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
       <c r="U31">
-        <v>540.1</v>
+        <v>17.8</v>
       </c>
       <c r="V31">
-        <v>0.8435108542870531</v>
+        <v>0.2261753494282084</v>
       </c>
       <c r="W31">
-        <v>0.1851730894839974</v>
+        <v>-0.014858934169279</v>
       </c>
       <c r="X31">
-        <v>0.07202688702363388</v>
+        <v>0.03297662385993218</v>
       </c>
       <c r="Y31">
-        <v>0.1131462024603635</v>
+        <v>-0.04783555802921118</v>
       </c>
       <c r="Z31">
-        <v>0.4424845469621588</v>
+        <v>1.82453909726637</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-0.03496503496503497</v>
       </c>
       <c r="AB31">
-        <v>0.04537543102434996</v>
+        <v>0.0319269997180996</v>
       </c>
       <c r="AC31">
-        <v>-0.04537543102434996</v>
+        <v>-0.06689203468313457</v>
       </c>
       <c r="AD31">
-        <v>971.5</v>
+        <v>5.78</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>971.5</v>
+        <v>5.78</v>
       </c>
       <c r="AG31">
-        <v>431.4</v>
+        <v>-12.02</v>
       </c>
       <c r="AH31">
-        <v>0.6027422757165901</v>
+        <v>0.06841856060606061</v>
       </c>
       <c r="AI31">
-        <v>0.7386709245742092</v>
+        <v>0.1546281433921883</v>
       </c>
       <c r="AJ31">
-        <v>0.4025380237006626</v>
+        <v>-0.1802639472105579</v>
       </c>
       <c r="AK31">
-        <v>0.5565733453747904</v>
+        <v>-0.6138917262512767</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>-0.265</v>
+      </c>
+      <c r="AN31">
+        <v>-15.62162162162162</v>
+      </c>
+      <c r="AO31">
+        <v>-28.94736842105263</v>
+      </c>
+      <c r="AP31">
+        <v>32.48648648648648</v>
+      </c>
+      <c r="AQ31">
+        <v>2.075471698113208</v>
       </c>
     </row>
     <row r="32">
@@ -4326,7 +4398,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Kobayashi Yoko Co., Ltd. (TSE:8742)</t>
+          <t>FinTech Global Incorporated (TSE:8789)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4335,118 +4407,115 @@
         </is>
       </c>
       <c r="D32">
-        <v>0.073</v>
+        <v>0.0473</v>
       </c>
       <c r="G32">
-        <v>-0.06726190476190476</v>
+        <v>-0.02157164869029276</v>
       </c>
       <c r="H32">
-        <v>-0.06726190476190476</v>
+        <v>-0.02157164869029276</v>
       </c>
       <c r="I32">
-        <v>-0.08095238095238096</v>
+        <v>-0.1274660120950548</v>
       </c>
       <c r="J32">
-        <v>-0.08095238095238096</v>
+        <v>-0.1274660120950548</v>
       </c>
       <c r="K32">
-        <v>-1.71</v>
+        <v>-11.2</v>
       </c>
       <c r="L32">
-        <v>-0.05089285714285714</v>
+        <v>-0.172573189522342</v>
       </c>
       <c r="M32">
-        <v>0.21712</v>
+        <v>-0</v>
       </c>
       <c r="N32">
-        <v>0.009564757709251101</v>
+        <v>-0</v>
       </c>
       <c r="O32">
-        <v>-0.1269707602339181</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>0.21712</v>
+        <v>-0</v>
       </c>
       <c r="Q32">
-        <v>0.009564757709251101</v>
+        <v>-0</v>
       </c>
       <c r="R32">
-        <v>-0.1269707602339181</v>
+        <v>0</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
-        <v>24.8</v>
+        <v>20.5</v>
       </c>
       <c r="V32">
-        <v>1.092511013215859</v>
+        <v>0.2565707133917396</v>
       </c>
       <c r="W32">
-        <v>-0.02358620689655172</v>
+        <v>-0.1611510791366906</v>
       </c>
       <c r="X32">
-        <v>0.04632003603488419</v>
+        <v>0.04663015213779001</v>
       </c>
       <c r="Y32">
-        <v>-0.06990624293143591</v>
+        <v>-0.2077812312744806</v>
       </c>
       <c r="Z32">
-        <v>0.6793368378487668</v>
+        <v>0.5229960268121256</v>
       </c>
       <c r="AA32">
-        <v>-0.05499393449251921</v>
+        <v>-0.06666421787930003</v>
       </c>
       <c r="AB32">
-        <v>0.04468862178394194</v>
+        <v>0.03475484017054016</v>
       </c>
       <c r="AC32">
-        <v>-0.09968255627646115</v>
+        <v>-0.1014190580498402</v>
       </c>
       <c r="AD32">
-        <v>1.76</v>
+        <v>72.2</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>3.462720924845301</v>
       </c>
       <c r="AF32">
-        <v>1.76</v>
+        <v>75.6627209248453</v>
       </c>
       <c r="AG32">
-        <v>-23.04</v>
+        <v>55.1627209248453</v>
       </c>
       <c r="AH32">
-        <v>0.07195421095666393</v>
+        <v>0.4863808017436202</v>
       </c>
       <c r="AI32">
-        <v>0.02096236303001429</v>
+        <v>0.521946059249757</v>
       </c>
       <c r="AJ32">
-        <v>67.76470588235297</v>
+        <v>0.4084229944955737</v>
       </c>
       <c r="AK32">
-        <v>-0.3894523326572008</v>
+        <v>0.4432067732004218</v>
       </c>
       <c r="AL32">
-        <v>0.019</v>
+        <v>1.32</v>
       </c>
       <c r="AM32">
-        <v>-0.379</v>
+        <v>1.187</v>
       </c>
       <c r="AN32">
-        <v>-0.8712871287128713</v>
+        <v>167.906976744186</v>
       </c>
       <c r="AO32">
-        <v>-143.1578947368421</v>
+        <v>-7.128787878787879</v>
       </c>
       <c r="AP32">
-        <v>11.40594059405941</v>
+        <v>128.2853974996402</v>
       </c>
       <c r="AQ32">
-        <v>7.176781002638523</v>
+        <v>-7.927548441449031</v>
       </c>
     </row>
     <row r="33">
@@ -4457,7 +4526,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Okato Holdings, Inc. (JASDAQ:8705)</t>
+          <t>Fujitomi Co.,Ltd. (JASDAQ:8740)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4466,46 +4535,43 @@
         </is>
       </c>
       <c r="D33">
-        <v>-0.111</v>
-      </c>
-      <c r="E33">
-        <v>-0.0116</v>
+        <v>0.0214</v>
       </c>
       <c r="G33">
-        <v>0.01363265306122449</v>
+        <v>-0.04338461538461538</v>
       </c>
       <c r="H33">
-        <v>0.01363265306122449</v>
+        <v>-0.04338461538461538</v>
       </c>
       <c r="I33">
-        <v>-0.04897959183673469</v>
+        <v>-0.08512820512820513</v>
       </c>
       <c r="J33">
-        <v>-0.04178814382896015</v>
+        <v>-0.08512820512820513</v>
       </c>
       <c r="K33">
-        <v>3.25</v>
+        <v>-2.04</v>
       </c>
       <c r="L33">
-        <v>0.1326530612244898</v>
+        <v>-0.1046153846153846</v>
       </c>
       <c r="M33">
-        <v>0.2996</v>
+        <v>0.18536</v>
       </c>
       <c r="N33">
-        <v>0.01826829268292683</v>
+        <v>0.01130243902439024</v>
       </c>
       <c r="O33">
-        <v>0.09218461538461538</v>
+        <v>-0.09086274509803921</v>
       </c>
       <c r="P33">
-        <v>0.2996</v>
+        <v>0.18536</v>
       </c>
       <c r="Q33">
-        <v>0.01826829268292683</v>
+        <v>0.01130243902439024</v>
       </c>
       <c r="R33">
-        <v>0.09218461538461538</v>
+        <v>-0.09086274509803921</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4514,73 +4580,70 @@
         <v>0</v>
       </c>
       <c r="U33">
-        <v>24.8</v>
+        <v>6.34</v>
       </c>
       <c r="V33">
-        <v>1.51219512195122</v>
+        <v>0.3865853658536585</v>
       </c>
       <c r="W33">
-        <v>0.1113013698630137</v>
+        <v>-0.09807692307692308</v>
       </c>
       <c r="X33">
-        <v>0.05433151067703522</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="Y33">
-        <v>0.05696985918597848</v>
+        <v>-0.129905596793211</v>
       </c>
       <c r="Z33">
-        <v>2.536231884057971</v>
+        <v>1.462865716429107</v>
       </c>
       <c r="AA33">
-        <v>-0.1059844227546091</v>
+        <v>-0.1245311327831958</v>
       </c>
       <c r="AB33">
-        <v>0.04817737769676493</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="AC33">
-        <v>-0.154161800451374</v>
+        <v>-0.1563598064994837</v>
       </c>
       <c r="AD33">
-        <v>8.630000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>8.630000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>-16.17</v>
+        <v>-6.34</v>
       </c>
       <c r="AH33">
-        <v>0.3447862564922093</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>0.2129286947939798</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>-70.30434782608792</v>
+        <v>-0.6302186878727635</v>
       </c>
       <c r="AK33">
-        <v>-1.027972027972028</v>
+        <v>-0.4930015552099534</v>
       </c>
       <c r="AL33">
-        <v>0.046</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>-0.195</v>
+        <v>-0.064</v>
       </c>
       <c r="AN33">
-        <v>-8.46078431372549</v>
-      </c>
-      <c r="AO33">
-        <v>-26.08695652173913</v>
+        <v>-0</v>
       </c>
       <c r="AP33">
-        <v>15.85294117647059</v>
+        <v>5.031746031746032</v>
       </c>
       <c r="AQ33">
-        <v>6.153846153846153</v>
+        <v>25.9375</v>
       </c>
     </row>
     <row r="34">
@@ -4591,7 +4654,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fujitomi Co.,Ltd. (JASDAQ:8740)</t>
+          <t>Nexus Bank Co., Ltd. (JASDAQ:4764)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4599,116 +4662,113 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D34">
-        <v>-0.0219</v>
-      </c>
       <c r="G34">
-        <v>-0.09547738693467336</v>
+        <v>-0.3132075471698114</v>
       </c>
       <c r="H34">
-        <v>-0.09547738693467336</v>
+        <v>-0.3132075471698114</v>
       </c>
       <c r="I34">
-        <v>-0.09497487437185929</v>
+        <v>-0.3320754716981132</v>
       </c>
       <c r="J34">
-        <v>-0.09497487437185929</v>
+        <v>-0.3320754716981132</v>
       </c>
       <c r="K34">
-        <v>-2.15</v>
+        <v>-3.91</v>
       </c>
       <c r="L34">
-        <v>-0.1080402010050251</v>
+        <v>-0.4918238993710692</v>
       </c>
       <c r="M34">
-        <v>0.18536</v>
+        <v>-0</v>
       </c>
       <c r="N34">
-        <v>0.01278344827586207</v>
+        <v>-0</v>
       </c>
       <c r="O34">
-        <v>-0.08621395348837209</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>0.18536</v>
+        <v>-0</v>
       </c>
       <c r="Q34">
-        <v>0.01278344827586207</v>
+        <v>-0</v>
       </c>
       <c r="R34">
-        <v>-0.08621395348837209</v>
+        <v>0</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
       <c r="U34">
-        <v>6.06</v>
+        <v>16.8</v>
       </c>
       <c r="V34">
-        <v>0.4179310344827586</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="W34">
-        <v>-0.1033653846153846</v>
+        <v>-0.2160220994475138</v>
       </c>
       <c r="X34">
-        <v>0.04493565290976192</v>
+        <v>0.03222414151184402</v>
       </c>
       <c r="Y34">
-        <v>-0.1483010375251465</v>
+        <v>-0.2482462409593578</v>
       </c>
       <c r="Z34">
-        <v>1.516768292682927</v>
+        <v>0.5813953488372092</v>
       </c>
       <c r="AA34">
-        <v>-0.1440548780487805</v>
+        <v>-0.1930671347082053</v>
       </c>
       <c r="AB34">
-        <v>0.04493565290976192</v>
+        <v>0.03197713470126672</v>
       </c>
       <c r="AC34">
-        <v>-0.1889905309585424</v>
+        <v>-0.2250442694094721</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AG34">
-        <v>-6.06</v>
+        <v>-15.12</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>0.02467685076380728</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>0.08805031446540881</v>
       </c>
       <c r="AJ34">
-        <v>-0.7180094786729856</v>
+        <v>-0.2948517940717629</v>
       </c>
       <c r="AK34">
-        <v>-0.4542728635682159</v>
+        <v>-6.631578947368428</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="AM34">
-        <v>-0.065</v>
+        <v>-0.598</v>
       </c>
       <c r="AN34">
-        <v>-0</v>
+        <v>-0.6746987951807228</v>
+      </c>
+      <c r="AO34">
+        <v>-57.39130434782609</v>
       </c>
       <c r="AP34">
-        <v>4.067114093959732</v>
+        <v>6.072289156626506</v>
       </c>
       <c r="AQ34">
-        <v>29.07692307692307</v>
+        <v>4.414715719063546</v>
       </c>
     </row>
     <row r="35">
@@ -4719,7 +4779,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Samurai&amp;J Partners Co.,Ltd. (JASDAQ:4764)</t>
+          <t>Oak Capital Corporation (TSE:3113)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4728,25 +4788,25 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.414</v>
+        <v>-0.449</v>
       </c>
       <c r="G35">
-        <v>0.156596794081381</v>
+        <v>-0.3178137651821862</v>
       </c>
       <c r="H35">
-        <v>0.156596794081381</v>
+        <v>-0.3178137651821862</v>
       </c>
       <c r="I35">
-        <v>-0.2959309494451295</v>
+        <v>-0.1787449392712551</v>
       </c>
       <c r="J35">
-        <v>-0.2959309494451295</v>
+        <v>-0.1787449392712551</v>
       </c>
       <c r="K35">
-        <v>-5.81</v>
+        <v>-9.91</v>
       </c>
       <c r="L35">
-        <v>-0.7163995067817509</v>
+        <v>-0.2006072874493927</v>
       </c>
       <c r="M35">
         <v>-0</v>
@@ -4770,73 +4830,73 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>8.31</v>
+        <v>16.6</v>
       </c>
       <c r="V35">
-        <v>0.1834437086092715</v>
+        <v>0.3990384615384616</v>
       </c>
       <c r="W35">
-        <v>-0.2515151515151515</v>
+        <v>-0.1775985663082437</v>
       </c>
       <c r="X35">
-        <v>0.04566878837420242</v>
+        <v>0.03660045260016721</v>
       </c>
       <c r="Y35">
-        <v>-0.2971839398893539</v>
+        <v>-0.214199018908411</v>
       </c>
       <c r="Z35">
-        <v>0.6991379310344827</v>
+        <v>1.097533881359698</v>
       </c>
       <c r="AA35">
-        <v>-0.2068965517241379</v>
+        <v>-0.196178626971784</v>
       </c>
       <c r="AB35">
-        <v>0.04612738317992713</v>
+        <v>0.03323577867757485</v>
       </c>
       <c r="AC35">
-        <v>-0.2530239349040651</v>
+        <v>-0.2294144056493589</v>
       </c>
       <c r="AD35">
-        <v>1.86</v>
+        <v>12.7</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>1.86</v>
+        <v>12.7</v>
       </c>
       <c r="AG35">
-        <v>-6.45</v>
+        <v>-3.900000000000002</v>
       </c>
       <c r="AH35">
-        <v>0.03944020356234097</v>
+        <v>0.2338858195211786</v>
       </c>
       <c r="AI35">
-        <v>0.08508691674290943</v>
+        <v>0.1990595611285266</v>
       </c>
       <c r="AJ35">
-        <v>-0.1660231660231661</v>
+        <v>-0.103448275862069</v>
       </c>
       <c r="AK35">
-        <v>-0.4760147601476015</v>
+        <v>-0.08262711864406784</v>
       </c>
       <c r="AL35">
-        <v>0.222</v>
+        <v>0.218</v>
       </c>
       <c r="AM35">
-        <v>0.103</v>
+        <v>-0.133</v>
       </c>
       <c r="AN35">
-        <v>0.5095890410958904</v>
+        <v>-1.581569115815691</v>
       </c>
       <c r="AO35">
-        <v>-10.81081081081081</v>
+        <v>-40.5045871559633</v>
       </c>
       <c r="AP35">
-        <v>-1.767123287671233</v>
+        <v>0.4856787048567874</v>
       </c>
       <c r="AQ35">
-        <v>-23.3009708737864</v>
+        <v>66.39097744360903</v>
       </c>
     </row>
     <row r="36">
@@ -4847,7 +4907,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FinTech Global Incorporated (TSE:8789)</t>
+          <t>M&amp;A Capital Partners Co.,Ltd. (TSE:6080)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4856,25 +4916,28 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.186</v>
+        <v>0.33</v>
+      </c>
+      <c r="E36">
+        <v>0.307</v>
       </c>
       <c r="G36">
-        <v>-0.1020023557126031</v>
+        <v>0.4520426287744228</v>
       </c>
       <c r="H36">
-        <v>-0.1020023557126031</v>
+        <v>0.4520426287744228</v>
       </c>
       <c r="I36">
-        <v>-0.1709688436970243</v>
+        <v>0.4411829508983964</v>
       </c>
       <c r="J36">
-        <v>-0.1709688436970243</v>
+        <v>0.297499150605808</v>
       </c>
       <c r="K36">
-        <v>-14.7</v>
+        <v>32.3</v>
       </c>
       <c r="L36">
-        <v>-0.1731448763250883</v>
+        <v>0.2868561278863233</v>
       </c>
       <c r="M36">
         <v>-0</v>
@@ -4883,7 +4946,7 @@
         <v>-0</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P36">
         <v>-0</v>
@@ -4892,79 +4955,76 @@
         <v>-0</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="U36">
-        <v>23.4</v>
+        <v>202.5</v>
       </c>
       <c r="V36">
-        <v>0.1711777615215801</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="W36">
-        <v>-0.2265023112480739</v>
+        <v>0.2028894472361809</v>
       </c>
       <c r="X36">
-        <v>0.05547990742064085</v>
+        <v>0.03187289040425781</v>
       </c>
       <c r="Y36">
-        <v>-0.2819822186687148</v>
+        <v>0.1710165568319231</v>
       </c>
       <c r="Z36">
-        <v>1.290935226270402</v>
+        <v>-7.854351935762526</v>
       </c>
       <c r="AA36">
-        <v>-0.2207097029232071</v>
+        <v>-2.336663029448435</v>
       </c>
       <c r="AB36">
-        <v>0.04618541075363494</v>
+        <v>0.03184564489683218</v>
       </c>
       <c r="AC36">
-        <v>-0.266895113676842</v>
+        <v>-2.368508674345267</v>
       </c>
       <c r="AD36">
-        <v>76.2</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>4.526274149386836</v>
+        <v>5.063998644202798</v>
       </c>
       <c r="AF36">
-        <v>80.72627414938684</v>
+        <v>5.063998644202798</v>
       </c>
       <c r="AG36">
-        <v>57.32627414938684</v>
+        <v>-197.4360013557972</v>
       </c>
       <c r="AH36">
-        <v>0.371281136399929</v>
+        <v>0.002820911430948583</v>
       </c>
       <c r="AI36">
-        <v>0.4957816210627259</v>
+        <v>0.0252362091776202</v>
       </c>
       <c r="AJ36">
-        <v>0.2954562437520682</v>
+        <v>-0.1239658845330024</v>
       </c>
       <c r="AK36">
-        <v>0.4111583308033118</v>
+        <v>107.5358690408313</v>
       </c>
       <c r="AL36">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>1.292</v>
+        <v>-0.038</v>
       </c>
       <c r="AN36">
-        <v>-11.09170305676856</v>
-      </c>
-      <c r="AO36">
-        <v>-11.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>-8.344435829605072</v>
+        <v>-3.677332861907193</v>
       </c>
       <c r="AQ36">
-        <v>-11.91950464396285</v>
+        <v>-1260.526315789474</v>
       </c>
     </row>
     <row r="37">
@@ -4975,7 +5035,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Oak Capital Corporation (TSE:3113)</t>
+          <t>meinan M&amp;A co.,ltd. (NSE:7076)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4983,119 +5043,107 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D37">
-        <v>-0.106</v>
-      </c>
       <c r="G37">
-        <v>-0.5868217054263566</v>
+        <v>0.3</v>
       </c>
       <c r="H37">
-        <v>-0.5868217054263566</v>
+        <v>0.3</v>
       </c>
       <c r="I37">
-        <v>-1.232558139534884</v>
+        <v>0.2949579831932773</v>
       </c>
       <c r="J37">
-        <v>-1.232558139534884</v>
+        <v>0.1899284342817245</v>
       </c>
       <c r="K37">
-        <v>-17.3</v>
+        <v>2.16</v>
       </c>
       <c r="L37">
-        <v>-1.341085271317829</v>
+        <v>0.1815126050420168</v>
       </c>
       <c r="M37">
-        <v>2.4656</v>
+        <v>-0</v>
       </c>
       <c r="N37">
-        <v>0.03876729559748428</v>
+        <v>-0</v>
       </c>
       <c r="O37">
-        <v>-0.1425202312138728</v>
+        <v>-0</v>
       </c>
       <c r="P37">
-        <v>2.4656</v>
+        <v>-0</v>
       </c>
       <c r="Q37">
-        <v>0.03876729559748428</v>
+        <v>-0</v>
       </c>
       <c r="R37">
-        <v>-0.1425202312138728</v>
+        <v>-0</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
       <c r="U37">
-        <v>20.9</v>
+        <v>10.6</v>
       </c>
       <c r="V37">
-        <v>0.3286163522012578</v>
+        <v>0.1152173913043478</v>
       </c>
       <c r="W37">
-        <v>-0.2215108834827145</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="X37">
-        <v>0.04911875668701055</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="Y37">
-        <v>-0.270629640169725</v>
+        <v>0.6954440535564393</v>
       </c>
       <c r="Z37">
-        <v>0.2514619883040936</v>
+        <v>-18.59375000000001</v>
       </c>
       <c r="AA37">
-        <v>-0.3099415204678363</v>
+        <v>-3.531481824925818</v>
       </c>
       <c r="AB37">
-        <v>0.04507414295948981</v>
+        <v>0.03182867371628791</v>
       </c>
       <c r="AC37">
-        <v>-0.3550156634273261</v>
+        <v>-3.563310498642106</v>
       </c>
       <c r="AD37">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>14.9</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>-5.999999999999998</v>
+        <v>-10.6</v>
       </c>
       <c r="AH37">
-        <v>0.1898089171974522</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>0.2083916083916084</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>-0.1041666666666666</v>
+        <v>-0.1302211302211302</v>
       </c>
       <c r="AK37">
-        <v>-0.1185770750988142</v>
+        <v>9.636363636363638</v>
       </c>
       <c r="AL37">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>-0.314</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>-0.9675324675324676</v>
-      </c>
-      <c r="AO37">
-        <v>-283.9285714285714</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.3896103896103895</v>
-      </c>
-      <c r="AQ37">
-        <v>50.63694267515924</v>
+        <v>-2.969187675070028</v>
       </c>
     </row>
   </sheetData>
